--- a/singol_hole_output.xlsx
+++ b/singol_hole_output.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="新細明體"/>
       <charset val="136"/>
@@ -32,6 +32,16 @@
       <sz val="9"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <family val="1"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -41,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -49,19 +59,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="medium"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -240,7 +279,7 @@
     <ext cx="5715000" cy="571500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPr id="5" name="Image 4" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -250,25 +289,27 @@
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5715000" cy="571500"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="571500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 5" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -278,29 +319,301 @@
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5715000" cy="571500"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="571500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 6" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="571500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="571500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="571500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="571500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="571500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="571500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="571500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="571500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="571500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -615,38 +928,224 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:Y4"/>
+      <selection activeCell="E11" sqref="E11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n"/>
+      <c r="A1" s="4" t="n"/>
     </row>
     <row r="2"/>
     <row r="3"/>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>地  質  鑽  探  及  土  壤  試  驗  一   覽  表</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>SOIL EXPLORATION AND TESTING REPORT</t>
         </is>
       </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>工程名稱：</t>
+        </is>
+      </c>
+      <c r="L6" s="6" t="inlineStr">
+        <is>
+          <t>鑽探公司:</t>
+        </is>
+      </c>
+      <c r="T6" s="6" t="inlineStr">
+        <is>
+          <t>地點：</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>Project</t>
+        </is>
+      </c>
+      <c r="L7" s="6" t="inlineStr">
+        <is>
+          <t>座      標：</t>
+        </is>
+      </c>
+      <c r="T7" s="6" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>鑽孔編號：</t>
+        </is>
+      </c>
+      <c r="L8" s="6" t="inlineStr">
+        <is>
+          <t>鑽孔標高：</t>
+        </is>
+      </c>
+      <c r="Q8" s="6" t="inlineStr">
+        <is>
+          <t>地下水位</t>
+        </is>
+      </c>
+      <c r="T8" s="6" t="inlineStr">
+        <is>
+          <t>頁次:</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>Hole No.</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="8" t="n"/>
+      <c r="E9" s="8" t="n"/>
+      <c r="F9" s="8" t="n"/>
+      <c r="G9" s="8" t="n"/>
+      <c r="H9" s="8" t="n"/>
+      <c r="I9" s="8" t="n"/>
+      <c r="J9" s="8" t="n"/>
+      <c r="K9" s="8" t="n"/>
+      <c r="L9" s="7" t="inlineStr">
+        <is>
+          <t>Surface Elev.</t>
+        </is>
+      </c>
+      <c r="M9" s="8" t="n"/>
+      <c r="N9" s="8" t="n"/>
+      <c r="O9" s="8" t="n"/>
+      <c r="P9" s="8" t="n"/>
+      <c r="Q9" s="7" t="inlineStr">
+        <is>
+          <t>G. W. Depth</t>
+        </is>
+      </c>
+      <c r="R9" s="8" t="n"/>
+      <c r="S9" s="8" t="n"/>
+      <c r="T9" s="7" t="inlineStr">
+        <is>
+          <t>Page</t>
+        </is>
+      </c>
+      <c r="U9" s="8" t="n"/>
+      <c r="V9" s="8" t="n"/>
+      <c r="W9" s="8" t="n"/>
+      <c r="X9" s="8" t="n"/>
+      <c r="Y9" s="8" t="n"/>
+    </row>
+    <row r="10">
+      <c r="E10" s="4" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>深度</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>柱</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>樣號</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>擊數</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="n"/>
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>狀</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>No.of</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Depth</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>圖</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>Blows</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>(M)</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>No.</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>Per ft.</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="E12"/>
+    <mergeCell ref="A5:Y5"/>
+    <mergeCell ref="A1:Y3"/>
+    <mergeCell ref="E11"/>
+    <mergeCell ref="E13"/>
     <mergeCell ref="A4:Y4"/>
-    <mergeCell ref="A1:Y3"/>
-    <mergeCell ref="A5:Y5"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/singol_hole_output.xlsx
+++ b/singol_hole_output.xlsx
@@ -109,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -154,6 +154,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1397,20 +1400,56 @@
           <t>CL</t>
         </is>
       </c>
-      <c r="K19" s="21" t="inlineStr">
+      <c r="K19" s="22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L19" s="7" t="n"/>
-      <c r="M19" s="7" t="n"/>
-      <c r="N19" s="7" t="n"/>
-      <c r="O19" s="7" t="n"/>
-      <c r="P19" s="7" t="n"/>
-      <c r="Q19" s="7" t="n"/>
-      <c r="R19" s="7" t="n"/>
-      <c r="S19" s="7" t="n"/>
-      <c r="T19" s="7" t="n"/>
+      <c r="L19" s="22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M19" s="22" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N19" s="22" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="O19" s="22" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="P19" s="22" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Q19" s="22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R19" s="22" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="S19" s="22" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="T19" s="22" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
       <c r="U19" s="7" t="n"/>
       <c r="V19" s="7" t="n"/>
       <c r="W19" s="7" t="n"/>
@@ -1497,20 +1536,56 @@
           <t>CL</t>
         </is>
       </c>
-      <c r="K22" s="21" t="inlineStr">
+      <c r="K22" s="22" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="L22" s="7" t="n"/>
-      <c r="M22" s="7" t="n"/>
-      <c r="N22" s="7" t="n"/>
-      <c r="O22" s="7" t="n"/>
-      <c r="P22" s="7" t="n"/>
-      <c r="Q22" s="7" t="n"/>
-      <c r="R22" s="7" t="n"/>
-      <c r="S22" s="7" t="n"/>
-      <c r="T22" s="7" t="n"/>
+      <c r="L22" s="22" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M22" s="22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N22" s="22" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O22" s="22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P22" s="22" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="Q22" s="22" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="R22" s="22" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="S22" s="22" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="T22" s="22" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="U22" s="7" t="n"/>
       <c r="V22" s="7" t="n"/>
       <c r="W22" s="7" t="n"/>
@@ -1597,20 +1672,56 @@
           <t>CL</t>
         </is>
       </c>
-      <c r="K25" s="21" t="inlineStr">
+      <c r="K25" s="22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L25" s="7" t="n"/>
-      <c r="M25" s="7" t="n"/>
-      <c r="N25" s="7" t="n"/>
-      <c r="O25" s="7" t="n"/>
-      <c r="P25" s="7" t="n"/>
-      <c r="Q25" s="7" t="n"/>
-      <c r="R25" s="7" t="n"/>
-      <c r="S25" s="7" t="n"/>
-      <c r="T25" s="7" t="n"/>
+      <c r="L25" s="22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M25" s="22" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N25" s="22" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="O25" s="22" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="P25" s="22" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Q25" s="22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R25" s="22" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="S25" s="22" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="T25" s="22" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
       <c r="U25" s="7" t="n"/>
       <c r="V25" s="7" t="n"/>
       <c r="W25" s="7" t="n"/>
@@ -1697,20 +1808,56 @@
           <t>CL</t>
         </is>
       </c>
-      <c r="K28" s="21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L28" s="7" t="n"/>
-      <c r="M28" s="7" t="n"/>
-      <c r="N28" s="7" t="n"/>
-      <c r="O28" s="7" t="n"/>
-      <c r="P28" s="7" t="n"/>
-      <c r="Q28" s="7" t="n"/>
-      <c r="R28" s="7" t="n"/>
-      <c r="S28" s="7" t="n"/>
-      <c r="T28" s="7" t="n"/>
+      <c r="K28" s="22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L28" s="22" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="M28" s="22" t="inlineStr">
+        <is>
+          <t>64.3</t>
+        </is>
+      </c>
+      <c r="N28" s="22" t="inlineStr">
+        <is>
+          <t>28.5</t>
+        </is>
+      </c>
+      <c r="O28" s="22" t="inlineStr">
+        <is>
+          <t>31.1</t>
+        </is>
+      </c>
+      <c r="P28" s="22" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="Q28" s="22" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="R28" s="22" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="S28" s="22" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="T28" s="22" t="inlineStr">
+        <is>
+          <t>14.6</t>
+        </is>
+      </c>
       <c r="U28" s="7" t="n"/>
       <c r="V28" s="7" t="n"/>
       <c r="W28" s="7" t="n"/>
@@ -1797,20 +1944,56 @@
           <t>CL</t>
         </is>
       </c>
-      <c r="K31" s="21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L31" s="7" t="n"/>
-      <c r="M31" s="7" t="n"/>
-      <c r="N31" s="7" t="n"/>
-      <c r="O31" s="7" t="n"/>
-      <c r="P31" s="7" t="n"/>
-      <c r="Q31" s="7" t="n"/>
-      <c r="R31" s="7" t="n"/>
-      <c r="S31" s="7" t="n"/>
-      <c r="T31" s="7" t="n"/>
+      <c r="K31" s="22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L31" s="22" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="M31" s="22" t="inlineStr">
+        <is>
+          <t>55.5</t>
+        </is>
+      </c>
+      <c r="N31" s="22" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="O31" s="22" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="P31" s="22" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="Q31" s="22" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="R31" s="22" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="S31" s="22" t="inlineStr">
+        <is>
+          <t>38.9</t>
+        </is>
+      </c>
+      <c r="T31" s="22" t="inlineStr">
+        <is>
+          <t>16.5</t>
+        </is>
+      </c>
       <c r="U31" s="7" t="n"/>
       <c r="V31" s="7" t="n"/>
       <c r="W31" s="7" t="n"/>
@@ -1897,20 +2080,56 @@
           <t>CL</t>
         </is>
       </c>
-      <c r="K34" s="21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L34" s="7" t="n"/>
-      <c r="M34" s="7" t="n"/>
-      <c r="N34" s="7" t="n"/>
-      <c r="O34" s="7" t="n"/>
-      <c r="P34" s="7" t="n"/>
-      <c r="Q34" s="7" t="n"/>
-      <c r="R34" s="7" t="n"/>
-      <c r="S34" s="7" t="n"/>
-      <c r="T34" s="7" t="n"/>
+      <c r="K34" s="22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L34" s="22" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M34" s="22" t="inlineStr">
+        <is>
+          <t>54.6</t>
+        </is>
+      </c>
+      <c r="N34" s="22" t="inlineStr">
+        <is>
+          <t>37.4</t>
+        </is>
+      </c>
+      <c r="O34" s="22" t="inlineStr">
+        <is>
+          <t>21.6</t>
+        </is>
+      </c>
+      <c r="P34" s="22" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="Q34" s="22" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="R34" s="22" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="S34" s="22" t="inlineStr">
+        <is>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="T34" s="22" t="inlineStr">
+        <is>
+          <t>16.2</t>
+        </is>
+      </c>
       <c r="U34" s="7" t="n"/>
       <c r="V34" s="7" t="n"/>
       <c r="W34" s="7" t="n"/>
@@ -1997,20 +2216,56 @@
           <t>ML</t>
         </is>
       </c>
-      <c r="K37" s="21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L37" s="7" t="n"/>
-      <c r="M37" s="7" t="n"/>
-      <c r="N37" s="7" t="n"/>
-      <c r="O37" s="7" t="n"/>
-      <c r="P37" s="7" t="n"/>
-      <c r="Q37" s="7" t="n"/>
-      <c r="R37" s="7" t="n"/>
-      <c r="S37" s="7" t="n"/>
-      <c r="T37" s="7" t="n"/>
+      <c r="K37" s="22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L37" s="22" t="inlineStr">
+        <is>
+          <t>31.4</t>
+        </is>
+      </c>
+      <c r="M37" s="22" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
+      <c r="N37" s="22" t="inlineStr">
+        <is>
+          <t>18.1</t>
+        </is>
+      </c>
+      <c r="O37" s="22" t="inlineStr">
+        <is>
+          <t>20.9</t>
+        </is>
+      </c>
+      <c r="P37" s="22" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="Q37" s="22" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="R37" s="22" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="S37" s="22" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="T37" s="22" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
       <c r="U37" s="7" t="n"/>
       <c r="V37" s="7" t="n"/>
       <c r="W37" s="7" t="n"/>
@@ -2097,20 +2352,56 @@
           <t>SM</t>
         </is>
       </c>
-      <c r="K40" s="21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L40" s="7" t="n"/>
-      <c r="M40" s="7" t="n"/>
-      <c r="N40" s="7" t="n"/>
-      <c r="O40" s="7" t="n"/>
-      <c r="P40" s="7" t="n"/>
-      <c r="Q40" s="7" t="n"/>
-      <c r="R40" s="7" t="n"/>
-      <c r="S40" s="7" t="n"/>
-      <c r="T40" s="7" t="n"/>
+      <c r="K40" s="22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L40" s="22" t="inlineStr">
+        <is>
+          <t>80.9</t>
+        </is>
+      </c>
+      <c r="M40" s="22" t="inlineStr">
+        <is>
+          <t>14.1</t>
+        </is>
+      </c>
+      <c r="N40" s="22" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O40" s="22" t="inlineStr">
+        <is>
+          <t>24.3</t>
+        </is>
+      </c>
+      <c r="P40" s="22" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="Q40" s="22" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="R40" s="22" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="S40" s="22" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="T40" s="22" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
       <c r="U40" s="7" t="n"/>
       <c r="V40" s="7" t="n"/>
       <c r="W40" s="7" t="n"/>
@@ -2197,20 +2488,56 @@
           <t>SM</t>
         </is>
       </c>
-      <c r="K43" s="21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L43" s="7" t="n"/>
-      <c r="M43" s="7" t="n"/>
-      <c r="N43" s="7" t="n"/>
-      <c r="O43" s="7" t="n"/>
-      <c r="P43" s="7" t="n"/>
-      <c r="Q43" s="7" t="n"/>
-      <c r="R43" s="7" t="n"/>
-      <c r="S43" s="7" t="n"/>
-      <c r="T43" s="7" t="n"/>
+      <c r="K43" s="22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L43" s="22" t="inlineStr">
+        <is>
+          <t>83.6</t>
+        </is>
+      </c>
+      <c r="M43" s="22" t="inlineStr">
+        <is>
+          <t>12.1</t>
+        </is>
+      </c>
+      <c r="N43" s="22" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="O43" s="22" t="inlineStr">
+        <is>
+          <t>30.5</t>
+        </is>
+      </c>
+      <c r="P43" s="22" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="Q43" s="22" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="R43" s="22" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="S43" s="22" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="T43" s="22" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
       <c r="U43" s="7" t="n"/>
       <c r="V43" s="7" t="n"/>
       <c r="W43" s="7" t="n"/>
@@ -2297,50 +2624,86 @@
           <t>SP-SM</t>
         </is>
       </c>
-      <c r="K46" s="21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L46" s="7" t="n"/>
-      <c r="M46" s="7" t="n"/>
-      <c r="N46" s="7" t="n"/>
-      <c r="O46" s="7" t="n"/>
-      <c r="P46" s="7" t="n"/>
-      <c r="Q46" s="7" t="n"/>
-      <c r="R46" s="7" t="n"/>
-      <c r="S46" s="7" t="n"/>
-      <c r="T46" s="7" t="n"/>
+      <c r="K46" s="22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L46" s="22" t="inlineStr">
+        <is>
+          <t>93.9</t>
+        </is>
+      </c>
+      <c r="M46" s="22" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+      <c r="N46" s="22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O46" s="22" t="inlineStr">
+        <is>
+          <t>29.8</t>
+        </is>
+      </c>
+      <c r="P46" s="22" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="Q46" s="22" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="R46" s="22" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="S46" s="22" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="T46" s="22" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
       <c r="U46" s="7" t="n"/>
       <c r="V46" s="7" t="n"/>
       <c r="W46" s="7" t="n"/>
       <c r="X46" s="19" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="22" t="n"/>
-      <c r="B47" s="23" t="n"/>
-      <c r="C47" s="23" t="n"/>
-      <c r="D47" s="23" t="n"/>
-      <c r="E47" s="23" t="n"/>
-      <c r="F47" s="23" t="n"/>
-      <c r="G47" s="23" t="n"/>
-      <c r="H47" s="23" t="n"/>
-      <c r="I47" s="23" t="n"/>
-      <c r="J47" s="23" t="n"/>
-      <c r="K47" s="23" t="n"/>
-      <c r="L47" s="23" t="n"/>
-      <c r="M47" s="23" t="n"/>
-      <c r="N47" s="23" t="n"/>
-      <c r="O47" s="23" t="n"/>
-      <c r="P47" s="23" t="n"/>
-      <c r="Q47" s="23" t="n"/>
-      <c r="R47" s="23" t="n"/>
-      <c r="S47" s="23" t="n"/>
-      <c r="T47" s="23" t="n"/>
-      <c r="U47" s="23" t="n"/>
-      <c r="V47" s="23" t="n"/>
-      <c r="W47" s="23" t="n"/>
-      <c r="X47" s="23" t="n"/>
+      <c r="A47" s="23" t="n"/>
+      <c r="B47" s="24" t="n"/>
+      <c r="C47" s="24" t="n"/>
+      <c r="D47" s="24" t="n"/>
+      <c r="E47" s="24" t="n"/>
+      <c r="F47" s="24" t="n"/>
+      <c r="G47" s="24" t="n"/>
+      <c r="H47" s="24" t="n"/>
+      <c r="I47" s="24" t="n"/>
+      <c r="J47" s="24" t="n"/>
+      <c r="K47" s="24" t="n"/>
+      <c r="L47" s="24" t="n"/>
+      <c r="M47" s="24" t="n"/>
+      <c r="N47" s="24" t="n"/>
+      <c r="O47" s="24" t="n"/>
+      <c r="P47" s="24" t="n"/>
+      <c r="Q47" s="24" t="n"/>
+      <c r="R47" s="24" t="n"/>
+      <c r="S47" s="24" t="n"/>
+      <c r="T47" s="24" t="n"/>
+      <c r="U47" s="24" t="n"/>
+      <c r="V47" s="24" t="n"/>
+      <c r="W47" s="24" t="n"/>
+      <c r="X47" s="24" t="n"/>
     </row>
     <row r="48"/>
     <row r="49"/>
@@ -3076,20 +3439,56 @@
           <t>SP-SM</t>
         </is>
       </c>
-      <c r="K65" s="21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L65" s="7" t="n"/>
-      <c r="M65" s="7" t="n"/>
-      <c r="N65" s="7" t="n"/>
-      <c r="O65" s="7" t="n"/>
-      <c r="P65" s="7" t="n"/>
-      <c r="Q65" s="7" t="n"/>
-      <c r="R65" s="7" t="n"/>
-      <c r="S65" s="7" t="n"/>
-      <c r="T65" s="7" t="n"/>
+      <c r="K65" s="22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L65" s="22" t="inlineStr">
+        <is>
+          <t>89.7</t>
+        </is>
+      </c>
+      <c r="M65" s="22" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+      <c r="N65" s="22" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="O65" s="22" t="inlineStr">
+        <is>
+          <t>20.2</t>
+        </is>
+      </c>
+      <c r="P65" s="22" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="Q65" s="22" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="R65" s="22" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="S65" s="22" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="T65" s="22" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
       <c r="U65" s="7" t="n"/>
       <c r="V65" s="7" t="n"/>
       <c r="W65" s="7" t="n"/>
@@ -3176,20 +3575,56 @@
           <t>SM</t>
         </is>
       </c>
-      <c r="K68" s="21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L68" s="7" t="n"/>
-      <c r="M68" s="7" t="n"/>
-      <c r="N68" s="7" t="n"/>
-      <c r="O68" s="7" t="n"/>
-      <c r="P68" s="7" t="n"/>
-      <c r="Q68" s="7" t="n"/>
-      <c r="R68" s="7" t="n"/>
-      <c r="S68" s="7" t="n"/>
-      <c r="T68" s="7" t="n"/>
+      <c r="K68" s="22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L68" s="22" t="inlineStr">
+        <is>
+          <t>72.2</t>
+        </is>
+      </c>
+      <c r="M68" s="22" t="inlineStr">
+        <is>
+          <t>20.5</t>
+        </is>
+      </c>
+      <c r="N68" s="22" t="inlineStr">
+        <is>
+          <t>7.3</t>
+        </is>
+      </c>
+      <c r="O68" s="22" t="inlineStr">
+        <is>
+          <t>29.4</t>
+        </is>
+      </c>
+      <c r="P68" s="22" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="Q68" s="22" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="R68" s="22" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="S68" s="22" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="T68" s="22" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
       <c r="U68" s="7" t="n"/>
       <c r="V68" s="7" t="n"/>
       <c r="W68" s="7" t="n"/>
@@ -3276,20 +3711,56 @@
           <t>SP-SM</t>
         </is>
       </c>
-      <c r="K71" s="21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L71" s="7" t="n"/>
-      <c r="M71" s="7" t="n"/>
-      <c r="N71" s="7" t="n"/>
-      <c r="O71" s="7" t="n"/>
-      <c r="P71" s="7" t="n"/>
-      <c r="Q71" s="7" t="n"/>
-      <c r="R71" s="7" t="n"/>
-      <c r="S71" s="7" t="n"/>
-      <c r="T71" s="7" t="n"/>
+      <c r="K71" s="22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L71" s="22" t="inlineStr">
+        <is>
+          <t>92.8</t>
+        </is>
+      </c>
+      <c r="M71" s="22" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="N71" s="22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O71" s="22" t="inlineStr">
+        <is>
+          <t>31.1</t>
+        </is>
+      </c>
+      <c r="P71" s="22" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="Q71" s="22" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="R71" s="22" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="S71" s="22" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="T71" s="22" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
       <c r="U71" s="7" t="n"/>
       <c r="V71" s="7" t="n"/>
       <c r="W71" s="7" t="n"/>
@@ -3376,20 +3847,56 @@
           <t>SM</t>
         </is>
       </c>
-      <c r="K74" s="21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L74" s="7" t="n"/>
-      <c r="M74" s="7" t="n"/>
-      <c r="N74" s="7" t="n"/>
-      <c r="O74" s="7" t="n"/>
-      <c r="P74" s="7" t="n"/>
-      <c r="Q74" s="7" t="n"/>
-      <c r="R74" s="7" t="n"/>
-      <c r="S74" s="7" t="n"/>
-      <c r="T74" s="7" t="n"/>
+      <c r="K74" s="22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L74" s="22" t="inlineStr">
+        <is>
+          <t>62.9</t>
+        </is>
+      </c>
+      <c r="M74" s="22" t="inlineStr">
+        <is>
+          <t>27.3</t>
+        </is>
+      </c>
+      <c r="N74" s="22" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
+      </c>
+      <c r="O74" s="22" t="inlineStr">
+        <is>
+          <t>28.1</t>
+        </is>
+      </c>
+      <c r="P74" s="22" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="Q74" s="22" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="R74" s="22" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="S74" s="22" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="T74" s="22" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
       <c r="U74" s="7" t="n"/>
       <c r="V74" s="7" t="n"/>
       <c r="W74" s="7" t="n"/>
@@ -3476,20 +3983,56 @@
           <t>SM</t>
         </is>
       </c>
-      <c r="K77" s="21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L77" s="7" t="n"/>
-      <c r="M77" s="7" t="n"/>
-      <c r="N77" s="7" t="n"/>
-      <c r="O77" s="7" t="n"/>
-      <c r="P77" s="7" t="n"/>
-      <c r="Q77" s="7" t="n"/>
-      <c r="R77" s="7" t="n"/>
-      <c r="S77" s="7" t="n"/>
-      <c r="T77" s="7" t="n"/>
+      <c r="K77" s="22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L77" s="22" t="inlineStr">
+        <is>
+          <t>77.5</t>
+        </is>
+      </c>
+      <c r="M77" s="22" t="inlineStr">
+        <is>
+          <t>16.6</t>
+        </is>
+      </c>
+      <c r="N77" s="22" t="inlineStr">
+        <is>
+          <t>5.9</t>
+        </is>
+      </c>
+      <c r="O77" s="22" t="inlineStr">
+        <is>
+          <t>29.6</t>
+        </is>
+      </c>
+      <c r="P77" s="22" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="Q77" s="22" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="R77" s="22" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="S77" s="22" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="T77" s="22" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
       <c r="U77" s="7" t="n"/>
       <c r="V77" s="7" t="n"/>
       <c r="W77" s="7" t="n"/>
@@ -3576,20 +4119,56 @@
           <t>SM</t>
         </is>
       </c>
-      <c r="K80" s="21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L80" s="7" t="n"/>
-      <c r="M80" s="7" t="n"/>
-      <c r="N80" s="7" t="n"/>
-      <c r="O80" s="7" t="n"/>
-      <c r="P80" s="7" t="n"/>
-      <c r="Q80" s="7" t="n"/>
-      <c r="R80" s="7" t="n"/>
-      <c r="S80" s="7" t="n"/>
-      <c r="T80" s="7" t="n"/>
+      <c r="K80" s="22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L80" s="22" t="inlineStr">
+        <is>
+          <t>64.9</t>
+        </is>
+      </c>
+      <c r="M80" s="22" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="N80" s="22" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="O80" s="22" t="inlineStr">
+        <is>
+          <t>27.9</t>
+        </is>
+      </c>
+      <c r="P80" s="22" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="Q80" s="22" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="R80" s="22" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="S80" s="22" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="T80" s="22" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
       <c r="U80" s="7" t="n"/>
       <c r="V80" s="7" t="n"/>
       <c r="W80" s="7" t="n"/>
@@ -3676,20 +4255,56 @@
           <t>SM</t>
         </is>
       </c>
-      <c r="K83" s="21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L83" s="7" t="n"/>
-      <c r="M83" s="7" t="n"/>
-      <c r="N83" s="7" t="n"/>
-      <c r="O83" s="7" t="n"/>
-      <c r="P83" s="7" t="n"/>
-      <c r="Q83" s="7" t="n"/>
-      <c r="R83" s="7" t="n"/>
-      <c r="S83" s="7" t="n"/>
-      <c r="T83" s="7" t="n"/>
+      <c r="K83" s="22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L83" s="22" t="inlineStr">
+        <is>
+          <t>84.3</t>
+        </is>
+      </c>
+      <c r="M83" s="22" t="inlineStr">
+        <is>
+          <t>11.6</t>
+        </is>
+      </c>
+      <c r="N83" s="22" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="O83" s="22" t="inlineStr">
+        <is>
+          <t>30.3</t>
+        </is>
+      </c>
+      <c r="P83" s="22" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="Q83" s="22" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="R83" s="22" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="S83" s="22" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="T83" s="22" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
       <c r="U83" s="7" t="n"/>
       <c r="V83" s="7" t="n"/>
       <c r="W83" s="7" t="n"/>
@@ -3776,20 +4391,56 @@
           <t>SP-SM</t>
         </is>
       </c>
-      <c r="K86" s="21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L86" s="7" t="n"/>
-      <c r="M86" s="7" t="n"/>
-      <c r="N86" s="7" t="n"/>
-      <c r="O86" s="7" t="n"/>
-      <c r="P86" s="7" t="n"/>
-      <c r="Q86" s="7" t="n"/>
-      <c r="R86" s="7" t="n"/>
-      <c r="S86" s="7" t="n"/>
-      <c r="T86" s="7" t="n"/>
+      <c r="K86" s="22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L86" s="22" t="inlineStr">
+        <is>
+          <t>88.1</t>
+        </is>
+      </c>
+      <c r="M86" s="22" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="N86" s="22" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="O86" s="22" t="inlineStr">
+        <is>
+          <t>28.4</t>
+        </is>
+      </c>
+      <c r="P86" s="22" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="Q86" s="22" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="R86" s="22" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="S86" s="22" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="T86" s="22" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
       <c r="U86" s="7" t="n"/>
       <c r="V86" s="7" t="n"/>
       <c r="W86" s="7" t="n"/>
@@ -3876,20 +4527,56 @@
           <t>SM</t>
         </is>
       </c>
-      <c r="K89" s="21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L89" s="7" t="n"/>
-      <c r="M89" s="7" t="n"/>
-      <c r="N89" s="7" t="n"/>
-      <c r="O89" s="7" t="n"/>
-      <c r="P89" s="7" t="n"/>
-      <c r="Q89" s="7" t="n"/>
-      <c r="R89" s="7" t="n"/>
-      <c r="S89" s="7" t="n"/>
-      <c r="T89" s="7" t="n"/>
+      <c r="K89" s="22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L89" s="22" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="M89" s="22" t="inlineStr">
+        <is>
+          <t>13.2</t>
+        </is>
+      </c>
+      <c r="N89" s="22" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="O89" s="22" t="inlineStr">
+        <is>
+          <t>30.9</t>
+        </is>
+      </c>
+      <c r="P89" s="22" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="Q89" s="22" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="R89" s="22" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="S89" s="22" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="T89" s="22" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
       <c r="U89" s="7" t="n"/>
       <c r="V89" s="7" t="n"/>
       <c r="W89" s="7" t="n"/>
@@ -3976,50 +4663,86 @@
           <t>SM</t>
         </is>
       </c>
-      <c r="K92" s="21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L92" s="7" t="n"/>
-      <c r="M92" s="7" t="n"/>
-      <c r="N92" s="7" t="n"/>
-      <c r="O92" s="7" t="n"/>
-      <c r="P92" s="7" t="n"/>
-      <c r="Q92" s="7" t="n"/>
-      <c r="R92" s="7" t="n"/>
-      <c r="S92" s="7" t="n"/>
-      <c r="T92" s="7" t="n"/>
+      <c r="K92" s="22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L92" s="22" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="M92" s="22" t="inlineStr">
+        <is>
+          <t>10.3</t>
+        </is>
+      </c>
+      <c r="N92" s="22" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="O92" s="22" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="P92" s="22" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="Q92" s="22" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="R92" s="22" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="S92" s="22" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="T92" s="22" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
       <c r="U92" s="7" t="n"/>
       <c r="V92" s="7" t="n"/>
       <c r="W92" s="7" t="n"/>
       <c r="X92" s="19" t="n"/>
     </row>
     <row r="93">
-      <c r="A93" s="22" t="n"/>
-      <c r="B93" s="23" t="n"/>
-      <c r="C93" s="23" t="n"/>
-      <c r="D93" s="23" t="n"/>
-      <c r="E93" s="23" t="n"/>
-      <c r="F93" s="23" t="n"/>
-      <c r="G93" s="23" t="n"/>
-      <c r="H93" s="23" t="n"/>
-      <c r="I93" s="23" t="n"/>
-      <c r="J93" s="23" t="n"/>
-      <c r="K93" s="23" t="n"/>
-      <c r="L93" s="23" t="n"/>
-      <c r="M93" s="23" t="n"/>
-      <c r="N93" s="23" t="n"/>
-      <c r="O93" s="23" t="n"/>
-      <c r="P93" s="23" t="n"/>
-      <c r="Q93" s="23" t="n"/>
-      <c r="R93" s="23" t="n"/>
-      <c r="S93" s="23" t="n"/>
-      <c r="T93" s="23" t="n"/>
-      <c r="U93" s="23" t="n"/>
-      <c r="V93" s="23" t="n"/>
-      <c r="W93" s="23" t="n"/>
-      <c r="X93" s="23" t="n"/>
+      <c r="A93" s="23" t="n"/>
+      <c r="B93" s="24" t="n"/>
+      <c r="C93" s="24" t="n"/>
+      <c r="D93" s="24" t="n"/>
+      <c r="E93" s="24" t="n"/>
+      <c r="F93" s="24" t="n"/>
+      <c r="G93" s="24" t="n"/>
+      <c r="H93" s="24" t="n"/>
+      <c r="I93" s="24" t="n"/>
+      <c r="J93" s="24" t="n"/>
+      <c r="K93" s="24" t="n"/>
+      <c r="L93" s="24" t="n"/>
+      <c r="M93" s="24" t="n"/>
+      <c r="N93" s="24" t="n"/>
+      <c r="O93" s="24" t="n"/>
+      <c r="P93" s="24" t="n"/>
+      <c r="Q93" s="24" t="n"/>
+      <c r="R93" s="24" t="n"/>
+      <c r="S93" s="24" t="n"/>
+      <c r="T93" s="24" t="n"/>
+      <c r="U93" s="24" t="n"/>
+      <c r="V93" s="24" t="n"/>
+      <c r="W93" s="24" t="n"/>
+      <c r="X93" s="24" t="n"/>
     </row>
     <row r="94"/>
     <row r="95"/>
@@ -4755,20 +5478,56 @@
           <t>CL</t>
         </is>
       </c>
-      <c r="K111" s="21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L111" s="7" t="n"/>
-      <c r="M111" s="7" t="n"/>
-      <c r="N111" s="7" t="n"/>
-      <c r="O111" s="7" t="n"/>
-      <c r="P111" s="7" t="n"/>
-      <c r="Q111" s="7" t="n"/>
-      <c r="R111" s="7" t="n"/>
-      <c r="S111" s="7" t="n"/>
-      <c r="T111" s="7" t="n"/>
+      <c r="K111" s="22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L111" s="22" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
+      <c r="M111" s="22" t="inlineStr">
+        <is>
+          <t>54.5</t>
+        </is>
+      </c>
+      <c r="N111" s="22" t="inlineStr">
+        <is>
+          <t>39.7</t>
+        </is>
+      </c>
+      <c r="O111" s="22" t="inlineStr">
+        <is>
+          <t>23.1</t>
+        </is>
+      </c>
+      <c r="P111" s="22" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="Q111" s="22" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="R111" s="22" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="S111" s="22" t="inlineStr">
+        <is>
+          <t>39.2</t>
+        </is>
+      </c>
+      <c r="T111" s="22" t="inlineStr">
+        <is>
+          <t>17.6</t>
+        </is>
+      </c>
       <c r="U111" s="7" t="n"/>
       <c r="V111" s="7" t="n"/>
       <c r="W111" s="7" t="n"/>
@@ -4855,20 +5614,56 @@
           <t>SM</t>
         </is>
       </c>
-      <c r="K114" s="21" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="L114" s="7" t="n"/>
-      <c r="M114" s="7" t="n"/>
-      <c r="N114" s="7" t="n"/>
-      <c r="O114" s="7" t="n"/>
-      <c r="P114" s="7" t="n"/>
-      <c r="Q114" s="7" t="n"/>
-      <c r="R114" s="7" t="n"/>
-      <c r="S114" s="7" t="n"/>
-      <c r="T114" s="7" t="n"/>
+      <c r="K114" s="22" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="L114" s="22" t="inlineStr">
+        <is>
+          <t>64.5</t>
+        </is>
+      </c>
+      <c r="M114" s="22" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N114" s="22" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O114" s="22" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="P114" s="22" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="Q114" s="22" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="R114" s="22" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="S114" s="22" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="T114" s="22" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
       <c r="U114" s="7" t="n"/>
       <c r="V114" s="7" t="n"/>
       <c r="W114" s="7" t="n"/>
@@ -4955,20 +5750,56 @@
           <t>SM</t>
         </is>
       </c>
-      <c r="K117" s="21" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="L117" s="7" t="n"/>
-      <c r="M117" s="7" t="n"/>
-      <c r="N117" s="7" t="n"/>
-      <c r="O117" s="7" t="n"/>
-      <c r="P117" s="7" t="n"/>
-      <c r="Q117" s="7" t="n"/>
-      <c r="R117" s="7" t="n"/>
-      <c r="S117" s="7" t="n"/>
-      <c r="T117" s="7" t="n"/>
+      <c r="K117" s="22" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L117" s="22" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="M117" s="22" t="inlineStr">
+        <is>
+          <t>26.5</t>
+        </is>
+      </c>
+      <c r="N117" s="22" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="O117" s="22" t="inlineStr">
+        <is>
+          <t>26.2</t>
+        </is>
+      </c>
+      <c r="P117" s="22" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="Q117" s="22" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="R117" s="22" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="S117" s="22" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="T117" s="22" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
       <c r="U117" s="7" t="n"/>
       <c r="V117" s="7" t="n"/>
       <c r="W117" s="7" t="n"/>
@@ -5055,20 +5886,56 @@
           <t>SM</t>
         </is>
       </c>
-      <c r="K120" s="21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L120" s="7" t="n"/>
-      <c r="M120" s="7" t="n"/>
-      <c r="N120" s="7" t="n"/>
-      <c r="O120" s="7" t="n"/>
-      <c r="P120" s="7" t="n"/>
-      <c r="Q120" s="7" t="n"/>
-      <c r="R120" s="7" t="n"/>
-      <c r="S120" s="7" t="n"/>
-      <c r="T120" s="7" t="n"/>
+      <c r="K120" s="22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L120" s="22" t="inlineStr">
+        <is>
+          <t>65.7</t>
+        </is>
+      </c>
+      <c r="M120" s="22" t="inlineStr">
+        <is>
+          <t>25.2</t>
+        </is>
+      </c>
+      <c r="N120" s="22" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="O120" s="22" t="inlineStr">
+        <is>
+          <t>25.8</t>
+        </is>
+      </c>
+      <c r="P120" s="22" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="Q120" s="22" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="R120" s="22" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="S120" s="22" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="T120" s="22" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
       <c r="U120" s="7" t="n"/>
       <c r="V120" s="7" t="n"/>
       <c r="W120" s="7" t="n"/>
@@ -5155,20 +6022,56 @@
           <t>SM</t>
         </is>
       </c>
-      <c r="K123" s="21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L123" s="7" t="n"/>
-      <c r="M123" s="7" t="n"/>
-      <c r="N123" s="7" t="n"/>
-      <c r="O123" s="7" t="n"/>
-      <c r="P123" s="7" t="n"/>
-      <c r="Q123" s="7" t="n"/>
-      <c r="R123" s="7" t="n"/>
-      <c r="S123" s="7" t="n"/>
-      <c r="T123" s="7" t="n"/>
+      <c r="K123" s="22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L123" s="22" t="inlineStr">
+        <is>
+          <t>61.5</t>
+        </is>
+      </c>
+      <c r="M123" s="22" t="inlineStr">
+        <is>
+          <t>28.3</t>
+        </is>
+      </c>
+      <c r="N123" s="22" t="inlineStr">
+        <is>
+          <t>10.2</t>
+        </is>
+      </c>
+      <c r="O123" s="22" t="inlineStr">
+        <is>
+          <t>26.8</t>
+        </is>
+      </c>
+      <c r="P123" s="22" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="Q123" s="22" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="R123" s="22" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="S123" s="22" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="T123" s="22" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
       <c r="U123" s="7" t="n"/>
       <c r="V123" s="7" t="n"/>
       <c r="W123" s="7" t="n"/>
@@ -5255,20 +6158,56 @@
           <t>SM</t>
         </is>
       </c>
-      <c r="K126" s="21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L126" s="7" t="n"/>
-      <c r="M126" s="7" t="n"/>
-      <c r="N126" s="7" t="n"/>
-      <c r="O126" s="7" t="n"/>
-      <c r="P126" s="7" t="n"/>
-      <c r="Q126" s="7" t="n"/>
-      <c r="R126" s="7" t="n"/>
-      <c r="S126" s="7" t="n"/>
-      <c r="T126" s="7" t="n"/>
+      <c r="K126" s="22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L126" s="22" t="inlineStr">
+        <is>
+          <t>77.2</t>
+        </is>
+      </c>
+      <c r="M126" s="22" t="inlineStr">
+        <is>
+          <t>16.8</t>
+        </is>
+      </c>
+      <c r="N126" s="22" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O126" s="22" t="inlineStr">
+        <is>
+          <t>27.7</t>
+        </is>
+      </c>
+      <c r="P126" s="22" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="Q126" s="22" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="R126" s="22" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="S126" s="22" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="T126" s="22" t="inlineStr">
+        <is>
+          <t>NP</t>
+        </is>
+      </c>
       <c r="U126" s="7" t="n"/>
       <c r="V126" s="7" t="n"/>
       <c r="W126" s="7" t="n"/>
@@ -5355,20 +6294,56 @@
           <t>CL</t>
         </is>
       </c>
-      <c r="K129" s="21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L129" s="7" t="n"/>
-      <c r="M129" s="7" t="n"/>
-      <c r="N129" s="7" t="n"/>
-      <c r="O129" s="7" t="n"/>
-      <c r="P129" s="7" t="n"/>
-      <c r="Q129" s="7" t="n"/>
-      <c r="R129" s="7" t="n"/>
-      <c r="S129" s="7" t="n"/>
-      <c r="T129" s="7" t="n"/>
+      <c r="K129" s="22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L129" s="22" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+      <c r="M129" s="22" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="N129" s="22" t="inlineStr">
+        <is>
+          <t>38.7</t>
+        </is>
+      </c>
+      <c r="O129" s="22" t="inlineStr">
+        <is>
+          <t>25.9</t>
+        </is>
+      </c>
+      <c r="P129" s="22" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="Q129" s="22" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="R129" s="22" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="S129" s="22" t="inlineStr">
+        <is>
+          <t>39.7</t>
+        </is>
+      </c>
+      <c r="T129" s="22" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
       <c r="U129" s="7" t="n"/>
       <c r="V129" s="7" t="n"/>
       <c r="W129" s="7" t="n"/>
@@ -5609,30 +6584,30 @@
       <c r="X138" s="19" t="n"/>
     </row>
     <row r="139">
-      <c r="A139" s="22" t="n"/>
-      <c r="B139" s="23" t="n"/>
-      <c r="C139" s="23" t="n"/>
-      <c r="D139" s="23" t="n"/>
-      <c r="E139" s="23" t="n"/>
-      <c r="F139" s="23" t="n"/>
-      <c r="G139" s="23" t="n"/>
-      <c r="H139" s="23" t="n"/>
-      <c r="I139" s="23" t="n"/>
-      <c r="J139" s="23" t="n"/>
-      <c r="K139" s="23" t="n"/>
-      <c r="L139" s="23" t="n"/>
-      <c r="M139" s="23" t="n"/>
-      <c r="N139" s="23" t="n"/>
-      <c r="O139" s="23" t="n"/>
-      <c r="P139" s="23" t="n"/>
-      <c r="Q139" s="23" t="n"/>
-      <c r="R139" s="23" t="n"/>
-      <c r="S139" s="23" t="n"/>
-      <c r="T139" s="23" t="n"/>
-      <c r="U139" s="23" t="n"/>
-      <c r="V139" s="23" t="n"/>
-      <c r="W139" s="23" t="n"/>
-      <c r="X139" s="23" t="n"/>
+      <c r="A139" s="23" t="n"/>
+      <c r="B139" s="24" t="n"/>
+      <c r="C139" s="24" t="n"/>
+      <c r="D139" s="24" t="n"/>
+      <c r="E139" s="24" t="n"/>
+      <c r="F139" s="24" t="n"/>
+      <c r="G139" s="24" t="n"/>
+      <c r="H139" s="24" t="n"/>
+      <c r="I139" s="24" t="n"/>
+      <c r="J139" s="24" t="n"/>
+      <c r="K139" s="24" t="n"/>
+      <c r="L139" s="24" t="n"/>
+      <c r="M139" s="24" t="n"/>
+      <c r="N139" s="24" t="n"/>
+      <c r="O139" s="24" t="n"/>
+      <c r="P139" s="24" t="n"/>
+      <c r="Q139" s="24" t="n"/>
+      <c r="R139" s="24" t="n"/>
+      <c r="S139" s="24" t="n"/>
+      <c r="T139" s="24" t="n"/>
+      <c r="U139" s="24" t="n"/>
+      <c r="V139" s="24" t="n"/>
+      <c r="W139" s="24" t="n"/>
+      <c r="X139" s="24" t="n"/>
     </row>
     <row r="140"/>
     <row r="141"/>
@@ -7068,7 +8043,7 @@
       <c r="X184" s="19" t="n"/>
     </row>
     <row r="185">
-      <c r="A185" s="22" t="n"/>
+      <c r="A185" s="23" t="n"/>
       <c r="B185" s="16" t="n"/>
       <c r="C185" s="7" t="n"/>
       <c r="D185" s="7" t="n"/>
@@ -7091,7 +8066,7 @@
       <c r="U185" s="7" t="n"/>
       <c r="V185" s="7" t="n"/>
       <c r="W185" s="7" t="n"/>
-      <c r="X185" s="22" t="n"/>
+      <c r="X185" s="23" t="n"/>
     </row>
     <row r="186">
       <c r="B186" s="16" t="n"/>

--- a/singol_hole_output.xlsx
+++ b/singol_hole_output.xlsx
@@ -43,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -55,20 +55,16 @@
       <bottom style="medium"/>
     </border>
     <border>
-      <top style="medium"/>
-    </border>
-    <border>
-      <right style="thin"/>
-    </border>
-    <border>
       <left style="medium"/>
     </border>
     <border>
       <right style="medium"/>
     </border>
     <border>
-      <left style="thin"/>
-      <top style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <top style="medium"/>
     </border>
     <border>
       <left style="thin"/>
@@ -109,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -124,43 +120,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -235,111 +227,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5238750" cy="571500"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>46</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5238750" cy="571500"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>92</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5238750" cy="571500"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>138</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5238750" cy="571500"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -626,12 +513,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X186"/>
+  <dimension ref="A1:X185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,75 +1127,75 @@
     <row r="16">
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="7" t="n"/>
-      <c r="G16" s="7" t="n"/>
-      <c r="H16" s="7" t="n"/>
-      <c r="I16" s="7" t="n"/>
-      <c r="J16" s="7" t="n"/>
-      <c r="K16" s="8" t="inlineStr">
+      <c r="C16" s="13" t="n"/>
+      <c r="D16" s="13" t="n"/>
+      <c r="E16" s="13" t="n"/>
+      <c r="F16" s="13" t="n"/>
+      <c r="G16" s="13" t="n"/>
+      <c r="H16" s="13" t="n"/>
+      <c r="I16" s="13" t="n"/>
+      <c r="J16" s="13" t="n"/>
+      <c r="K16" s="12" t="inlineStr">
         <is>
           <t>Gravel</t>
         </is>
       </c>
-      <c r="L16" s="8" t="inlineStr">
+      <c r="L16" s="12" t="inlineStr">
         <is>
           <t>Sand</t>
         </is>
       </c>
-      <c r="M16" s="8" t="inlineStr">
+      <c r="M16" s="12" t="inlineStr">
         <is>
           <t>Silt</t>
         </is>
       </c>
-      <c r="N16" s="8" t="inlineStr">
+      <c r="N16" s="12" t="inlineStr">
         <is>
           <t>Clay</t>
         </is>
       </c>
-      <c r="O16" s="8" t="inlineStr">
+      <c r="O16" s="12" t="inlineStr">
         <is>
           <t>W(%)</t>
         </is>
       </c>
-      <c r="P16" s="8" t="inlineStr">
+      <c r="P16" s="12" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="Q16" s="8" t="inlineStr">
+      <c r="Q16" s="12" t="inlineStr">
         <is>
           <t>T/M³</t>
         </is>
       </c>
-      <c r="R16" s="8" t="inlineStr">
+      <c r="R16" s="12" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="S16" s="8" t="inlineStr">
+      <c r="S16" s="12" t="inlineStr">
         <is>
           <t>WL(%)</t>
         </is>
       </c>
-      <c r="T16" s="8" t="inlineStr">
+      <c r="T16" s="12" t="inlineStr">
         <is>
           <t>IP(%)</t>
         </is>
       </c>
-      <c r="U16" s="8" t="inlineStr">
+      <c r="U16" s="12" t="inlineStr">
         <is>
           <t>(kgf/cm²)</t>
         </is>
       </c>
-      <c r="V16" s="8" t="inlineStr">
+      <c r="V16" s="12" t="inlineStr">
         <is>
           <t>(Degree)</t>
         </is>
       </c>
-      <c r="W16" s="8" t="inlineStr">
+      <c r="W16" s="12" t="inlineStr">
         <is>
           <t>(kgf/cm²)</t>
         </is>
@@ -1320,34 +1207,36 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n"/>
-      <c r="B17" s="16" t="n"/>
-      <c r="C17" s="17" t="n"/>
-      <c r="D17" s="17" t="n"/>
-      <c r="E17" s="17" t="n"/>
-      <c r="F17" s="17" t="n"/>
-      <c r="G17" s="17" t="n"/>
-      <c r="H17" s="17" t="n"/>
-      <c r="I17" s="17" t="n"/>
-      <c r="J17" s="17" t="n"/>
-      <c r="K17" s="17" t="n"/>
-      <c r="L17" s="17" t="n"/>
-      <c r="M17" s="17" t="n"/>
-      <c r="N17" s="17" t="n"/>
-      <c r="O17" s="17" t="n"/>
-      <c r="P17" s="17" t="n"/>
-      <c r="Q17" s="17" t="n"/>
-      <c r="R17" s="17" t="n"/>
-      <c r="S17" s="17" t="n"/>
-      <c r="T17" s="17" t="n"/>
-      <c r="U17" s="17" t="n"/>
-      <c r="V17" s="17" t="n"/>
-      <c r="W17" s="17" t="n"/>
+      <c r="A17" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B17" s="17" t="n"/>
+      <c r="C17" s="7" t="n"/>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="7" t="n"/>
+      <c r="G17" s="7" t="n"/>
+      <c r="H17" s="7" t="n"/>
+      <c r="I17" s="7" t="n"/>
+      <c r="J17" s="7" t="n"/>
+      <c r="K17" s="7" t="n"/>
+      <c r="L17" s="7" t="n"/>
+      <c r="M17" s="7" t="n"/>
+      <c r="N17" s="7" t="n"/>
+      <c r="O17" s="7" t="n"/>
+      <c r="P17" s="7" t="n"/>
+      <c r="Q17" s="7" t="n"/>
+      <c r="R17" s="7" t="n"/>
+      <c r="S17" s="7" t="n"/>
+      <c r="T17" s="7" t="n"/>
+      <c r="U17" s="7" t="n"/>
+      <c r="V17" s="7" t="n"/>
+      <c r="W17" s="7" t="n"/>
       <c r="X17" s="18" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="6" t="n"/>
-      <c r="B18" s="16" t="n"/>
+      <c r="B18" s="17" t="n"/>
       <c r="C18" s="7" t="n"/>
       <c r="D18" s="7" t="n"/>
       <c r="E18" s="7" t="n"/>
@@ -1372,84 +1261,38 @@
       <c r="X18" s="19" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="B19" s="16" t="n"/>
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="17" t="n"/>
       <c r="C19" s="7" t="n"/>
-      <c r="D19" s="21" t="inlineStr">
+      <c r="D19" s="20" t="inlineStr">
         <is>
           <t>S-1-2</t>
         </is>
       </c>
-      <c r="E19" s="21" t="n">
+      <c r="E19" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="F19" s="21" t="n">
+      <c r="F19" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="G19" s="21" t="n">
+      <c r="G19" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="H19" s="21" t="n">
+      <c r="H19" s="20" t="n">
         <v>10</v>
       </c>
       <c r="I19" s="7" t="n"/>
-      <c r="J19" s="21" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
-      <c r="K19" s="22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L19" s="22" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M19" s="22" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="N19" s="22" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="O19" s="22" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="P19" s="22" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="Q19" s="22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R19" s="22" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="S19" s="22" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="T19" s="22" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
+      <c r="J19" s="7" t="n"/>
+      <c r="K19" s="7" t="n"/>
+      <c r="L19" s="7" t="n"/>
+      <c r="M19" s="7" t="n"/>
+      <c r="N19" s="7" t="n"/>
+      <c r="O19" s="7" t="n"/>
+      <c r="P19" s="7" t="n"/>
+      <c r="Q19" s="7" t="n"/>
+      <c r="R19" s="7" t="n"/>
+      <c r="S19" s="7" t="n"/>
+      <c r="T19" s="7" t="n"/>
       <c r="U19" s="7" t="n"/>
       <c r="V19" s="7" t="n"/>
       <c r="W19" s="7" t="n"/>
@@ -1457,7 +1300,7 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="n"/>
-      <c r="B20" s="16" t="n"/>
+      <c r="B20" s="17" t="n"/>
       <c r="C20" s="7" t="n"/>
       <c r="D20" s="7" t="n"/>
       <c r="E20" s="7" t="n"/>
@@ -1483,7 +1326,7 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="n"/>
-      <c r="B21" s="16" t="n"/>
+      <c r="B21" s="17" t="n"/>
       <c r="C21" s="7" t="n"/>
       <c r="D21" s="7" t="n"/>
       <c r="E21" s="7" t="n"/>
@@ -1508,84 +1351,40 @@
       <c r="X21" s="19" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="20" t="n">
+      <c r="A22" s="16" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="B22" s="17" t="n"/>
+      <c r="C22" s="7" t="n"/>
+      <c r="D22" s="20" t="inlineStr">
+        <is>
+          <t>S-2-2</t>
+        </is>
+      </c>
+      <c r="E22" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="B22" s="16" t="n"/>
-      <c r="C22" s="7" t="n"/>
-      <c r="D22" s="21" t="inlineStr">
-        <is>
-          <t>S-2-2</t>
-        </is>
-      </c>
-      <c r="E22" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="F22" s="21" t="n">
+      <c r="F22" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="G22" s="21" t="n">
+      <c r="G22" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="H22" s="21" t="n">
+      <c r="H22" s="20" t="n">
         <v>10</v>
       </c>
       <c r="I22" s="7" t="n"/>
-      <c r="J22" s="21" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
-      <c r="K22" s="22" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="L22" s="22" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M22" s="22" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N22" s="22" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="O22" s="22" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P22" s="22" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="Q22" s="22" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="R22" s="22" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="S22" s="22" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="T22" s="22" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="J22" s="7" t="n"/>
+      <c r="K22" s="7" t="n"/>
+      <c r="L22" s="7" t="n"/>
+      <c r="M22" s="7" t="n"/>
+      <c r="N22" s="7" t="n"/>
+      <c r="O22" s="7" t="n"/>
+      <c r="P22" s="7" t="n"/>
+      <c r="Q22" s="7" t="n"/>
+      <c r="R22" s="7" t="n"/>
+      <c r="S22" s="7" t="n"/>
+      <c r="T22" s="7" t="n"/>
       <c r="U22" s="7" t="n"/>
       <c r="V22" s="7" t="n"/>
       <c r="W22" s="7" t="n"/>
@@ -1593,7 +1392,7 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="n"/>
-      <c r="B23" s="16" t="n"/>
+      <c r="B23" s="17" t="n"/>
       <c r="C23" s="7" t="n"/>
       <c r="D23" s="7" t="n"/>
       <c r="E23" s="7" t="n"/>
@@ -1619,7 +1418,7 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="n"/>
-      <c r="B24" s="16" t="n"/>
+      <c r="B24" s="17" t="n"/>
       <c r="C24" s="7" t="n"/>
       <c r="D24" s="7" t="n"/>
       <c r="E24" s="7" t="n"/>
@@ -1644,92 +1443,48 @@
       <c r="X24" s="19" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="B25" s="16" t="n"/>
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="17" t="n"/>
       <c r="C25" s="7" t="n"/>
-      <c r="D25" s="21" t="inlineStr">
+      <c r="D25" s="20" t="inlineStr">
         <is>
           <t>S-3-2</t>
         </is>
       </c>
-      <c r="E25" s="21" t="n">
+      <c r="E25" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="F25" s="21" t="n">
+      <c r="F25" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="G25" s="21" t="n">
+      <c r="G25" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="H25" s="21" t="n">
+      <c r="H25" s="20" t="n">
         <v>8</v>
       </c>
       <c r="I25" s="7" t="n"/>
-      <c r="J25" s="21" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
-      <c r="K25" s="22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L25" s="22" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M25" s="22" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="N25" s="22" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="O25" s="22" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="P25" s="22" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="Q25" s="22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R25" s="22" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="S25" s="22" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="T25" s="22" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
+      <c r="J25" s="7" t="n"/>
+      <c r="K25" s="7" t="n"/>
+      <c r="L25" s="7" t="n"/>
+      <c r="M25" s="7" t="n"/>
+      <c r="N25" s="7" t="n"/>
+      <c r="O25" s="7" t="n"/>
+      <c r="P25" s="7" t="n"/>
+      <c r="Q25" s="7" t="n"/>
+      <c r="R25" s="7" t="n"/>
+      <c r="S25" s="7" t="n"/>
+      <c r="T25" s="7" t="n"/>
       <c r="U25" s="7" t="n"/>
       <c r="V25" s="7" t="n"/>
       <c r="W25" s="7" t="n"/>
       <c r="X25" s="19" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="n"/>
-      <c r="B26" s="16" t="n"/>
+      <c r="A26" s="16" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B26" s="17" t="n"/>
       <c r="C26" s="7" t="n"/>
       <c r="D26" s="7" t="n"/>
       <c r="E26" s="7" t="n"/>
@@ -1755,7 +1510,7 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="n"/>
-      <c r="B27" s="16" t="n"/>
+      <c r="B27" s="17" t="n"/>
       <c r="C27" s="7" t="n"/>
       <c r="D27" s="7" t="n"/>
       <c r="E27" s="7" t="n"/>
@@ -1780,84 +1535,38 @@
       <c r="X27" s="19" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="B28" s="16" t="n"/>
+      <c r="A28" s="6" t="n"/>
+      <c r="B28" s="17" t="n"/>
       <c r="C28" s="7" t="n"/>
-      <c r="D28" s="21" t="inlineStr">
+      <c r="D28" s="20" t="inlineStr">
         <is>
           <t>S-4-2</t>
         </is>
       </c>
-      <c r="E28" s="21" t="n">
+      <c r="E28" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="F28" s="21" t="n">
+      <c r="F28" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="G28" s="21" t="n">
+      <c r="G28" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="H28" s="21" t="n">
+      <c r="H28" s="20" t="n">
         <v>9</v>
       </c>
       <c r="I28" s="7" t="n"/>
-      <c r="J28" s="21" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
-      <c r="K28" s="22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L28" s="22" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="M28" s="22" t="inlineStr">
-        <is>
-          <t>64.3</t>
-        </is>
-      </c>
-      <c r="N28" s="22" t="inlineStr">
-        <is>
-          <t>28.5</t>
-        </is>
-      </c>
-      <c r="O28" s="22" t="inlineStr">
-        <is>
-          <t>31.1</t>
-        </is>
-      </c>
-      <c r="P28" s="22" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="Q28" s="22" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="R28" s="22" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="S28" s="22" t="inlineStr">
-        <is>
-          <t>36.0</t>
-        </is>
-      </c>
-      <c r="T28" s="22" t="inlineStr">
-        <is>
-          <t>14.6</t>
-        </is>
-      </c>
+      <c r="J28" s="7" t="n"/>
+      <c r="K28" s="7" t="n"/>
+      <c r="L28" s="7" t="n"/>
+      <c r="M28" s="7" t="n"/>
+      <c r="N28" s="7" t="n"/>
+      <c r="O28" s="7" t="n"/>
+      <c r="P28" s="7" t="n"/>
+      <c r="Q28" s="7" t="n"/>
+      <c r="R28" s="7" t="n"/>
+      <c r="S28" s="7" t="n"/>
+      <c r="T28" s="7" t="n"/>
       <c r="U28" s="7" t="n"/>
       <c r="V28" s="7" t="n"/>
       <c r="W28" s="7" t="n"/>
@@ -1865,7 +1574,7 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="n"/>
-      <c r="B29" s="16" t="n"/>
+      <c r="B29" s="17" t="n"/>
       <c r="C29" s="7" t="n"/>
       <c r="D29" s="7" t="n"/>
       <c r="E29" s="7" t="n"/>
@@ -1891,7 +1600,7 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="n"/>
-      <c r="B30" s="16" t="n"/>
+      <c r="B30" s="17" t="n"/>
       <c r="C30" s="7" t="n"/>
       <c r="D30" s="7" t="n"/>
       <c r="E30" s="7" t="n"/>
@@ -1916,84 +1625,38 @@
       <c r="X30" s="19" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="B31" s="16" t="n"/>
+      <c r="A31" s="6" t="n"/>
+      <c r="B31" s="17" t="n"/>
       <c r="C31" s="7" t="n"/>
-      <c r="D31" s="21" t="inlineStr">
+      <c r="D31" s="20" t="inlineStr">
         <is>
           <t>S-5-2</t>
         </is>
       </c>
-      <c r="E31" s="21" t="n">
+      <c r="E31" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="F31" s="21" t="n">
+      <c r="F31" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="G31" s="21" t="n">
+      <c r="G31" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="H31" s="21" t="n">
+      <c r="H31" s="20" t="n">
         <v>8</v>
       </c>
       <c r="I31" s="7" t="n"/>
-      <c r="J31" s="21" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
-      <c r="K31" s="22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L31" s="22" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="M31" s="22" t="inlineStr">
-        <is>
-          <t>55.5</t>
-        </is>
-      </c>
-      <c r="N31" s="22" t="inlineStr">
-        <is>
-          <t>35.0</t>
-        </is>
-      </c>
-      <c r="O31" s="22" t="inlineStr">
-        <is>
-          <t>28.0</t>
-        </is>
-      </c>
-      <c r="P31" s="22" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="Q31" s="22" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="R31" s="22" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="S31" s="22" t="inlineStr">
-        <is>
-          <t>38.9</t>
-        </is>
-      </c>
-      <c r="T31" s="22" t="inlineStr">
-        <is>
-          <t>16.5</t>
-        </is>
-      </c>
+      <c r="J31" s="7" t="n"/>
+      <c r="K31" s="7" t="n"/>
+      <c r="L31" s="7" t="n"/>
+      <c r="M31" s="7" t="n"/>
+      <c r="N31" s="7" t="n"/>
+      <c r="O31" s="7" t="n"/>
+      <c r="P31" s="7" t="n"/>
+      <c r="Q31" s="7" t="n"/>
+      <c r="R31" s="7" t="n"/>
+      <c r="S31" s="7" t="n"/>
+      <c r="T31" s="7" t="n"/>
       <c r="U31" s="7" t="n"/>
       <c r="V31" s="7" t="n"/>
       <c r="W31" s="7" t="n"/>
@@ -2001,7 +1664,7 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="n"/>
-      <c r="B32" s="16" t="n"/>
+      <c r="B32" s="17" t="n"/>
       <c r="C32" s="7" t="n"/>
       <c r="D32" s="7" t="n"/>
       <c r="E32" s="7" t="n"/>
@@ -2027,7 +1690,7 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="n"/>
-      <c r="B33" s="16" t="n"/>
+      <c r="B33" s="17" t="n"/>
       <c r="C33" s="7" t="n"/>
       <c r="D33" s="7" t="n"/>
       <c r="E33" s="7" t="n"/>
@@ -2052,84 +1715,38 @@
       <c r="X33" s="19" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="20" t="n">
-        <v>9</v>
-      </c>
-      <c r="B34" s="16" t="n"/>
+      <c r="A34" s="6" t="n"/>
+      <c r="B34" s="17" t="n"/>
       <c r="C34" s="7" t="n"/>
-      <c r="D34" s="21" t="inlineStr">
+      <c r="D34" s="20" t="inlineStr">
         <is>
           <t>S-6-2</t>
         </is>
       </c>
-      <c r="E34" s="21" t="n">
+      <c r="E34" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="F34" s="21" t="n">
+      <c r="F34" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="G34" s="21" t="n">
+      <c r="G34" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="H34" s="21" t="n">
+      <c r="H34" s="20" t="n">
         <v>10</v>
       </c>
       <c r="I34" s="7" t="n"/>
-      <c r="J34" s="21" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
-      <c r="K34" s="22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L34" s="22" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="M34" s="22" t="inlineStr">
-        <is>
-          <t>54.6</t>
-        </is>
-      </c>
-      <c r="N34" s="22" t="inlineStr">
-        <is>
-          <t>37.4</t>
-        </is>
-      </c>
-      <c r="O34" s="22" t="inlineStr">
-        <is>
-          <t>21.6</t>
-        </is>
-      </c>
-      <c r="P34" s="22" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="Q34" s="22" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="R34" s="22" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="S34" s="22" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="T34" s="22" t="inlineStr">
-        <is>
-          <t>16.2</t>
-        </is>
-      </c>
+      <c r="J34" s="7" t="n"/>
+      <c r="K34" s="7" t="n"/>
+      <c r="L34" s="7" t="n"/>
+      <c r="M34" s="7" t="n"/>
+      <c r="N34" s="7" t="n"/>
+      <c r="O34" s="7" t="n"/>
+      <c r="P34" s="7" t="n"/>
+      <c r="Q34" s="7" t="n"/>
+      <c r="R34" s="7" t="n"/>
+      <c r="S34" s="7" t="n"/>
+      <c r="T34" s="7" t="n"/>
       <c r="U34" s="7" t="n"/>
       <c r="V34" s="7" t="n"/>
       <c r="W34" s="7" t="n"/>
@@ -2137,7 +1754,7 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="n"/>
-      <c r="B35" s="16" t="n"/>
+      <c r="B35" s="17" t="n"/>
       <c r="C35" s="7" t="n"/>
       <c r="D35" s="7" t="n"/>
       <c r="E35" s="7" t="n"/>
@@ -2163,7 +1780,7 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="n"/>
-      <c r="B36" s="16" t="n"/>
+      <c r="B36" s="17" t="n"/>
       <c r="C36" s="7" t="n"/>
       <c r="D36" s="7" t="n"/>
       <c r="E36" s="7" t="n"/>
@@ -2188,84 +1805,38 @@
       <c r="X36" s="19" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="B37" s="16" t="n"/>
+      <c r="A37" s="6" t="n"/>
+      <c r="B37" s="17" t="n"/>
       <c r="C37" s="7" t="n"/>
-      <c r="D37" s="21" t="inlineStr">
+      <c r="D37" s="20" t="inlineStr">
         <is>
           <t>S-7-2</t>
         </is>
       </c>
-      <c r="E37" s="21" t="n">
+      <c r="E37" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="F37" s="21" t="n">
+      <c r="F37" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="G37" s="21" t="n">
+      <c r="G37" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="H37" s="21" t="n">
+      <c r="H37" s="20" t="n">
         <v>13</v>
       </c>
       <c r="I37" s="7" t="n"/>
-      <c r="J37" s="21" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="K37" s="22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L37" s="22" t="inlineStr">
-        <is>
-          <t>31.4</t>
-        </is>
-      </c>
-      <c r="M37" s="22" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="N37" s="22" t="inlineStr">
-        <is>
-          <t>18.1</t>
-        </is>
-      </c>
-      <c r="O37" s="22" t="inlineStr">
-        <is>
-          <t>20.9</t>
-        </is>
-      </c>
-      <c r="P37" s="22" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="Q37" s="22" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="R37" s="22" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="S37" s="22" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="T37" s="22" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="J37" s="7" t="n"/>
+      <c r="K37" s="7" t="n"/>
+      <c r="L37" s="7" t="n"/>
+      <c r="M37" s="7" t="n"/>
+      <c r="N37" s="7" t="n"/>
+      <c r="O37" s="7" t="n"/>
+      <c r="P37" s="7" t="n"/>
+      <c r="Q37" s="7" t="n"/>
+      <c r="R37" s="7" t="n"/>
+      <c r="S37" s="7" t="n"/>
+      <c r="T37" s="7" t="n"/>
       <c r="U37" s="7" t="n"/>
       <c r="V37" s="7" t="n"/>
       <c r="W37" s="7" t="n"/>
@@ -2273,7 +1844,7 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="n"/>
-      <c r="B38" s="16" t="n"/>
+      <c r="B38" s="17" t="n"/>
       <c r="C38" s="7" t="n"/>
       <c r="D38" s="7" t="n"/>
       <c r="E38" s="7" t="n"/>
@@ -2299,7 +1870,7 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="n"/>
-      <c r="B39" s="16" t="n"/>
+      <c r="B39" s="17" t="n"/>
       <c r="C39" s="7" t="n"/>
       <c r="D39" s="7" t="n"/>
       <c r="E39" s="7" t="n"/>
@@ -2324,84 +1895,38 @@
       <c r="X39" s="19" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="20" t="n">
-        <v>12</v>
-      </c>
-      <c r="B40" s="16" t="n"/>
+      <c r="A40" s="6" t="n"/>
+      <c r="B40" s="17" t="n"/>
       <c r="C40" s="7" t="n"/>
-      <c r="D40" s="21" t="inlineStr">
+      <c r="D40" s="20" t="inlineStr">
         <is>
           <t>S-8-2</t>
         </is>
       </c>
-      <c r="E40" s="21" t="n">
+      <c r="E40" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="F40" s="21" t="n">
+      <c r="F40" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="G40" s="21" t="n">
+      <c r="G40" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="H40" s="21" t="n">
+      <c r="H40" s="20" t="n">
         <v>11</v>
       </c>
       <c r="I40" s="7" t="n"/>
-      <c r="J40" s="21" t="inlineStr">
-        <is>
-          <t>SM</t>
-        </is>
-      </c>
-      <c r="K40" s="22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L40" s="22" t="inlineStr">
-        <is>
-          <t>80.9</t>
-        </is>
-      </c>
-      <c r="M40" s="22" t="inlineStr">
-        <is>
-          <t>14.1</t>
-        </is>
-      </c>
-      <c r="N40" s="22" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="O40" s="22" t="inlineStr">
-        <is>
-          <t>24.3</t>
-        </is>
-      </c>
-      <c r="P40" s="22" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="Q40" s="22" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="R40" s="22" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="S40" s="22" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="T40" s="22" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="J40" s="7" t="n"/>
+      <c r="K40" s="7" t="n"/>
+      <c r="L40" s="7" t="n"/>
+      <c r="M40" s="7" t="n"/>
+      <c r="N40" s="7" t="n"/>
+      <c r="O40" s="7" t="n"/>
+      <c r="P40" s="7" t="n"/>
+      <c r="Q40" s="7" t="n"/>
+      <c r="R40" s="7" t="n"/>
+      <c r="S40" s="7" t="n"/>
+      <c r="T40" s="7" t="n"/>
       <c r="U40" s="7" t="n"/>
       <c r="V40" s="7" t="n"/>
       <c r="W40" s="7" t="n"/>
@@ -2409,7 +1934,7 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="n"/>
-      <c r="B41" s="16" t="n"/>
+      <c r="B41" s="17" t="n"/>
       <c r="C41" s="7" t="n"/>
       <c r="D41" s="7" t="n"/>
       <c r="E41" s="7" t="n"/>
@@ -2435,7 +1960,7 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="n"/>
-      <c r="B42" s="16" t="n"/>
+      <c r="B42" s="17" t="n"/>
       <c r="C42" s="7" t="n"/>
       <c r="D42" s="7" t="n"/>
       <c r="E42" s="7" t="n"/>
@@ -2460,84 +1985,38 @@
       <c r="X42" s="19" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="B43" s="16" t="n"/>
+      <c r="A43" s="6" t="n"/>
+      <c r="B43" s="17" t="n"/>
       <c r="C43" s="7" t="n"/>
-      <c r="D43" s="21" t="inlineStr">
+      <c r="D43" s="20" t="inlineStr">
         <is>
           <t>S-9-2</t>
         </is>
       </c>
-      <c r="E43" s="21" t="n">
+      <c r="E43" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="F43" s="21" t="n">
+      <c r="F43" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="G43" s="21" t="n">
+      <c r="G43" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="H43" s="21" t="n">
+      <c r="H43" s="20" t="n">
         <v>10</v>
       </c>
       <c r="I43" s="7" t="n"/>
-      <c r="J43" s="21" t="inlineStr">
-        <is>
-          <t>SM</t>
-        </is>
-      </c>
-      <c r="K43" s="22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L43" s="22" t="inlineStr">
-        <is>
-          <t>83.6</t>
-        </is>
-      </c>
-      <c r="M43" s="22" t="inlineStr">
-        <is>
-          <t>12.1</t>
-        </is>
-      </c>
-      <c r="N43" s="22" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="O43" s="22" t="inlineStr">
-        <is>
-          <t>30.5</t>
-        </is>
-      </c>
-      <c r="P43" s="22" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="Q43" s="22" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="R43" s="22" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="S43" s="22" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="T43" s="22" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="J43" s="7" t="n"/>
+      <c r="K43" s="7" t="n"/>
+      <c r="L43" s="7" t="n"/>
+      <c r="M43" s="7" t="n"/>
+      <c r="N43" s="7" t="n"/>
+      <c r="O43" s="7" t="n"/>
+      <c r="P43" s="7" t="n"/>
+      <c r="Q43" s="7" t="n"/>
+      <c r="R43" s="7" t="n"/>
+      <c r="S43" s="7" t="n"/>
+      <c r="T43" s="7" t="n"/>
       <c r="U43" s="7" t="n"/>
       <c r="V43" s="7" t="n"/>
       <c r="W43" s="7" t="n"/>
@@ -2545,7 +2024,7 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="n"/>
-      <c r="B44" s="16" t="n"/>
+      <c r="B44" s="17" t="n"/>
       <c r="C44" s="7" t="n"/>
       <c r="D44" s="7" t="n"/>
       <c r="E44" s="7" t="n"/>
@@ -2571,7 +2050,7 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="n"/>
-      <c r="B45" s="16" t="n"/>
+      <c r="B45" s="17" t="n"/>
       <c r="C45" s="7" t="n"/>
       <c r="D45" s="7" t="n"/>
       <c r="E45" s="7" t="n"/>
@@ -2596,114 +2075,68 @@
       <c r="X45" s="19" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="20" t="n">
-        <v>15</v>
-      </c>
-      <c r="B46" s="16" t="n"/>
+      <c r="A46" s="6" t="n"/>
+      <c r="B46" s="17" t="n"/>
       <c r="C46" s="7" t="n"/>
-      <c r="D46" s="21" t="inlineStr">
+      <c r="D46" s="20" t="inlineStr">
         <is>
           <t>S-10-2</t>
         </is>
       </c>
-      <c r="E46" s="21" t="n">
+      <c r="E46" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="F46" s="21" t="n">
+      <c r="F46" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="G46" s="21" t="n">
+      <c r="G46" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="H46" s="21" t="n">
+      <c r="H46" s="20" t="n">
         <v>12</v>
       </c>
       <c r="I46" s="7" t="n"/>
-      <c r="J46" s="21" t="inlineStr">
-        <is>
-          <t>SP-SM</t>
-        </is>
-      </c>
-      <c r="K46" s="22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L46" s="22" t="inlineStr">
-        <is>
-          <t>93.9</t>
-        </is>
-      </c>
-      <c r="M46" s="22" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="N46" s="22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O46" s="22" t="inlineStr">
-        <is>
-          <t>29.8</t>
-        </is>
-      </c>
-      <c r="P46" s="22" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="Q46" s="22" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="R46" s="22" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="S46" s="22" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="T46" s="22" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="J46" s="7" t="n"/>
+      <c r="K46" s="7" t="n"/>
+      <c r="L46" s="7" t="n"/>
+      <c r="M46" s="7" t="n"/>
+      <c r="N46" s="7" t="n"/>
+      <c r="O46" s="7" t="n"/>
+      <c r="P46" s="7" t="n"/>
+      <c r="Q46" s="7" t="n"/>
+      <c r="R46" s="7" t="n"/>
+      <c r="S46" s="7" t="n"/>
+      <c r="T46" s="7" t="n"/>
       <c r="U46" s="7" t="n"/>
       <c r="V46" s="7" t="n"/>
       <c r="W46" s="7" t="n"/>
       <c r="X46" s="19" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="23" t="n"/>
-      <c r="B47" s="24" t="n"/>
-      <c r="C47" s="24" t="n"/>
-      <c r="D47" s="24" t="n"/>
-      <c r="E47" s="24" t="n"/>
-      <c r="F47" s="24" t="n"/>
-      <c r="G47" s="24" t="n"/>
-      <c r="H47" s="24" t="n"/>
-      <c r="I47" s="24" t="n"/>
-      <c r="J47" s="24" t="n"/>
-      <c r="K47" s="24" t="n"/>
-      <c r="L47" s="24" t="n"/>
-      <c r="M47" s="24" t="n"/>
-      <c r="N47" s="24" t="n"/>
-      <c r="O47" s="24" t="n"/>
-      <c r="P47" s="24" t="n"/>
-      <c r="Q47" s="24" t="n"/>
-      <c r="R47" s="24" t="n"/>
-      <c r="S47" s="24" t="n"/>
-      <c r="T47" s="24" t="n"/>
-      <c r="U47" s="24" t="n"/>
-      <c r="V47" s="24" t="n"/>
-      <c r="W47" s="24" t="n"/>
-      <c r="X47" s="24" t="n"/>
+      <c r="A47" s="21" t="n"/>
+      <c r="B47" s="22" t="n"/>
+      <c r="C47" s="22" t="n"/>
+      <c r="D47" s="22" t="n"/>
+      <c r="E47" s="22" t="n"/>
+      <c r="F47" s="22" t="n"/>
+      <c r="G47" s="22" t="n"/>
+      <c r="H47" s="22" t="n"/>
+      <c r="I47" s="22" t="n"/>
+      <c r="J47" s="22" t="n"/>
+      <c r="K47" s="22" t="n"/>
+      <c r="L47" s="22" t="n"/>
+      <c r="M47" s="22" t="n"/>
+      <c r="N47" s="22" t="n"/>
+      <c r="O47" s="22" t="n"/>
+      <c r="P47" s="22" t="n"/>
+      <c r="Q47" s="22" t="n"/>
+      <c r="R47" s="22" t="n"/>
+      <c r="S47" s="22" t="n"/>
+      <c r="T47" s="22" t="n"/>
+      <c r="U47" s="22" t="n"/>
+      <c r="V47" s="22" t="n"/>
+      <c r="W47" s="22" t="n"/>
+      <c r="X47" s="22" t="n"/>
     </row>
     <row r="48"/>
     <row r="49"/>
@@ -3279,75 +2712,75 @@
     <row r="62">
       <c r="A62" s="14" t="n"/>
       <c r="B62" s="7" t="n"/>
-      <c r="C62" s="7" t="n"/>
-      <c r="D62" s="7" t="n"/>
-      <c r="E62" s="7" t="n"/>
-      <c r="F62" s="7" t="n"/>
-      <c r="G62" s="7" t="n"/>
-      <c r="H62" s="7" t="n"/>
-      <c r="I62" s="7" t="n"/>
-      <c r="J62" s="7" t="n"/>
-      <c r="K62" s="8" t="inlineStr">
+      <c r="C62" s="13" t="n"/>
+      <c r="D62" s="13" t="n"/>
+      <c r="E62" s="13" t="n"/>
+      <c r="F62" s="13" t="n"/>
+      <c r="G62" s="13" t="n"/>
+      <c r="H62" s="13" t="n"/>
+      <c r="I62" s="13" t="n"/>
+      <c r="J62" s="13" t="n"/>
+      <c r="K62" s="12" t="inlineStr">
         <is>
           <t>Gravel</t>
         </is>
       </c>
-      <c r="L62" s="8" t="inlineStr">
+      <c r="L62" s="12" t="inlineStr">
         <is>
           <t>Sand</t>
         </is>
       </c>
-      <c r="M62" s="8" t="inlineStr">
+      <c r="M62" s="12" t="inlineStr">
         <is>
           <t>Silt</t>
         </is>
       </c>
-      <c r="N62" s="8" t="inlineStr">
+      <c r="N62" s="12" t="inlineStr">
         <is>
           <t>Clay</t>
         </is>
       </c>
-      <c r="O62" s="8" t="inlineStr">
+      <c r="O62" s="12" t="inlineStr">
         <is>
           <t>W(%)</t>
         </is>
       </c>
-      <c r="P62" s="8" t="inlineStr">
+      <c r="P62" s="12" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="Q62" s="8" t="inlineStr">
+      <c r="Q62" s="12" t="inlineStr">
         <is>
           <t>T/M³</t>
         </is>
       </c>
-      <c r="R62" s="8" t="inlineStr">
+      <c r="R62" s="12" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="S62" s="8" t="inlineStr">
+      <c r="S62" s="12" t="inlineStr">
         <is>
           <t>WL(%)</t>
         </is>
       </c>
-      <c r="T62" s="8" t="inlineStr">
+      <c r="T62" s="12" t="inlineStr">
         <is>
           <t>IP(%)</t>
         </is>
       </c>
-      <c r="U62" s="8" t="inlineStr">
+      <c r="U62" s="12" t="inlineStr">
         <is>
           <t>(kgf/cm²)</t>
         </is>
       </c>
-      <c r="V62" s="8" t="inlineStr">
+      <c r="V62" s="12" t="inlineStr">
         <is>
           <t>(Degree)</t>
         </is>
       </c>
-      <c r="W62" s="8" t="inlineStr">
+      <c r="W62" s="12" t="inlineStr">
         <is>
           <t>(kgf/cm²)</t>
         </is>
@@ -3360,33 +2793,33 @@
     </row>
     <row r="63">
       <c r="A63" s="6" t="n"/>
-      <c r="B63" s="16" t="n"/>
-      <c r="C63" s="17" t="n"/>
-      <c r="D63" s="17" t="n"/>
-      <c r="E63" s="17" t="n"/>
-      <c r="F63" s="17" t="n"/>
-      <c r="G63" s="17" t="n"/>
-      <c r="H63" s="17" t="n"/>
-      <c r="I63" s="17" t="n"/>
-      <c r="J63" s="17" t="n"/>
-      <c r="K63" s="17" t="n"/>
-      <c r="L63" s="17" t="n"/>
-      <c r="M63" s="17" t="n"/>
-      <c r="N63" s="17" t="n"/>
-      <c r="O63" s="17" t="n"/>
-      <c r="P63" s="17" t="n"/>
-      <c r="Q63" s="17" t="n"/>
-      <c r="R63" s="17" t="n"/>
-      <c r="S63" s="17" t="n"/>
-      <c r="T63" s="17" t="n"/>
-      <c r="U63" s="17" t="n"/>
-      <c r="V63" s="17" t="n"/>
-      <c r="W63" s="17" t="n"/>
+      <c r="B63" s="17" t="n"/>
+      <c r="C63" s="7" t="n"/>
+      <c r="D63" s="7" t="n"/>
+      <c r="E63" s="7" t="n"/>
+      <c r="F63" s="7" t="n"/>
+      <c r="G63" s="7" t="n"/>
+      <c r="H63" s="7" t="n"/>
+      <c r="I63" s="7" t="n"/>
+      <c r="J63" s="7" t="n"/>
+      <c r="K63" s="7" t="n"/>
+      <c r="L63" s="7" t="n"/>
+      <c r="M63" s="7" t="n"/>
+      <c r="N63" s="7" t="n"/>
+      <c r="O63" s="7" t="n"/>
+      <c r="P63" s="7" t="n"/>
+      <c r="Q63" s="7" t="n"/>
+      <c r="R63" s="7" t="n"/>
+      <c r="S63" s="7" t="n"/>
+      <c r="T63" s="7" t="n"/>
+      <c r="U63" s="7" t="n"/>
+      <c r="V63" s="7" t="n"/>
+      <c r="W63" s="7" t="n"/>
       <c r="X63" s="18" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="6" t="n"/>
-      <c r="B64" s="16" t="n"/>
+      <c r="B64" s="17" t="n"/>
       <c r="C64" s="7" t="n"/>
       <c r="D64" s="7" t="n"/>
       <c r="E64" s="7" t="n"/>
@@ -3411,84 +2844,38 @@
       <c r="X64" s="19" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="B65" s="16" t="n"/>
+      <c r="A65" s="6" t="n"/>
+      <c r="B65" s="17" t="n"/>
       <c r="C65" s="7" t="n"/>
-      <c r="D65" s="21" t="inlineStr">
+      <c r="D65" s="20" t="inlineStr">
         <is>
           <t>S-11-2</t>
         </is>
       </c>
-      <c r="E65" s="21" t="n">
+      <c r="E65" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="F65" s="21" t="n">
+      <c r="F65" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="G65" s="21" t="n">
+      <c r="G65" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="H65" s="21" t="n">
+      <c r="H65" s="20" t="n">
         <v>13</v>
       </c>
       <c r="I65" s="7" t="n"/>
-      <c r="J65" s="21" t="inlineStr">
-        <is>
-          <t>SP-SM</t>
-        </is>
-      </c>
-      <c r="K65" s="22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L65" s="22" t="inlineStr">
-        <is>
-          <t>89.7</t>
-        </is>
-      </c>
-      <c r="M65" s="22" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
-      </c>
-      <c r="N65" s="22" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
-      <c r="O65" s="22" t="inlineStr">
-        <is>
-          <t>20.2</t>
-        </is>
-      </c>
-      <c r="P65" s="22" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="Q65" s="22" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="R65" s="22" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="S65" s="22" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="T65" s="22" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="J65" s="7" t="n"/>
+      <c r="K65" s="7" t="n"/>
+      <c r="L65" s="7" t="n"/>
+      <c r="M65" s="7" t="n"/>
+      <c r="N65" s="7" t="n"/>
+      <c r="O65" s="7" t="n"/>
+      <c r="P65" s="7" t="n"/>
+      <c r="Q65" s="7" t="n"/>
+      <c r="R65" s="7" t="n"/>
+      <c r="S65" s="7" t="n"/>
+      <c r="T65" s="7" t="n"/>
       <c r="U65" s="7" t="n"/>
       <c r="V65" s="7" t="n"/>
       <c r="W65" s="7" t="n"/>
@@ -3496,7 +2883,7 @@
     </row>
     <row r="66">
       <c r="A66" s="6" t="n"/>
-      <c r="B66" s="16" t="n"/>
+      <c r="B66" s="17" t="n"/>
       <c r="C66" s="7" t="n"/>
       <c r="D66" s="7" t="n"/>
       <c r="E66" s="7" t="n"/>
@@ -3522,7 +2909,7 @@
     </row>
     <row r="67">
       <c r="A67" s="6" t="n"/>
-      <c r="B67" s="16" t="n"/>
+      <c r="B67" s="17" t="n"/>
       <c r="C67" s="7" t="n"/>
       <c r="D67" s="7" t="n"/>
       <c r="E67" s="7" t="n"/>
@@ -3547,84 +2934,38 @@
       <c r="X67" s="19" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="20" t="n">
-        <v>18</v>
-      </c>
-      <c r="B68" s="16" t="n"/>
+      <c r="A68" s="6" t="n"/>
+      <c r="B68" s="17" t="n"/>
       <c r="C68" s="7" t="n"/>
-      <c r="D68" s="21" t="inlineStr">
+      <c r="D68" s="20" t="inlineStr">
         <is>
           <t>S-12-2</t>
         </is>
       </c>
-      <c r="E68" s="21" t="n">
+      <c r="E68" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="F68" s="21" t="n">
+      <c r="F68" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="G68" s="21" t="n">
+      <c r="G68" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="H68" s="21" t="n">
+      <c r="H68" s="20" t="n">
         <v>13</v>
       </c>
       <c r="I68" s="7" t="n"/>
-      <c r="J68" s="21" t="inlineStr">
-        <is>
-          <t>SM</t>
-        </is>
-      </c>
-      <c r="K68" s="22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L68" s="22" t="inlineStr">
-        <is>
-          <t>72.2</t>
-        </is>
-      </c>
-      <c r="M68" s="22" t="inlineStr">
-        <is>
-          <t>20.5</t>
-        </is>
-      </c>
-      <c r="N68" s="22" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="O68" s="22" t="inlineStr">
-        <is>
-          <t>29.4</t>
-        </is>
-      </c>
-      <c r="P68" s="22" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="Q68" s="22" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="R68" s="22" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="S68" s="22" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="T68" s="22" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="J68" s="7" t="n"/>
+      <c r="K68" s="7" t="n"/>
+      <c r="L68" s="7" t="n"/>
+      <c r="M68" s="7" t="n"/>
+      <c r="N68" s="7" t="n"/>
+      <c r="O68" s="7" t="n"/>
+      <c r="P68" s="7" t="n"/>
+      <c r="Q68" s="7" t="n"/>
+      <c r="R68" s="7" t="n"/>
+      <c r="S68" s="7" t="n"/>
+      <c r="T68" s="7" t="n"/>
       <c r="U68" s="7" t="n"/>
       <c r="V68" s="7" t="n"/>
       <c r="W68" s="7" t="n"/>
@@ -3632,7 +2973,7 @@
     </row>
     <row r="69">
       <c r="A69" s="6" t="n"/>
-      <c r="B69" s="16" t="n"/>
+      <c r="B69" s="17" t="n"/>
       <c r="C69" s="7" t="n"/>
       <c r="D69" s="7" t="n"/>
       <c r="E69" s="7" t="n"/>
@@ -3658,7 +2999,7 @@
     </row>
     <row r="70">
       <c r="A70" s="6" t="n"/>
-      <c r="B70" s="16" t="n"/>
+      <c r="B70" s="17" t="n"/>
       <c r="C70" s="7" t="n"/>
       <c r="D70" s="7" t="n"/>
       <c r="E70" s="7" t="n"/>
@@ -3683,84 +3024,38 @@
       <c r="X70" s="19" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="20" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="B71" s="16" t="n"/>
+      <c r="A71" s="6" t="n"/>
+      <c r="B71" s="17" t="n"/>
       <c r="C71" s="7" t="n"/>
-      <c r="D71" s="21" t="inlineStr">
+      <c r="D71" s="20" t="inlineStr">
         <is>
           <t>S-13-2</t>
         </is>
       </c>
-      <c r="E71" s="21" t="n">
+      <c r="E71" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="F71" s="21" t="n">
+      <c r="F71" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="G71" s="21" t="n">
+      <c r="G71" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="H71" s="21" t="n">
+      <c r="H71" s="20" t="n">
         <v>14</v>
       </c>
       <c r="I71" s="7" t="n"/>
-      <c r="J71" s="21" t="inlineStr">
-        <is>
-          <t>SP-SM</t>
-        </is>
-      </c>
-      <c r="K71" s="22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L71" s="22" t="inlineStr">
-        <is>
-          <t>92.8</t>
-        </is>
-      </c>
-      <c r="M71" s="22" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="N71" s="22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O71" s="22" t="inlineStr">
-        <is>
-          <t>31.1</t>
-        </is>
-      </c>
-      <c r="P71" s="22" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="Q71" s="22" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="R71" s="22" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="S71" s="22" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="T71" s="22" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="J71" s="7" t="n"/>
+      <c r="K71" s="7" t="n"/>
+      <c r="L71" s="7" t="n"/>
+      <c r="M71" s="7" t="n"/>
+      <c r="N71" s="7" t="n"/>
+      <c r="O71" s="7" t="n"/>
+      <c r="P71" s="7" t="n"/>
+      <c r="Q71" s="7" t="n"/>
+      <c r="R71" s="7" t="n"/>
+      <c r="S71" s="7" t="n"/>
+      <c r="T71" s="7" t="n"/>
       <c r="U71" s="7" t="n"/>
       <c r="V71" s="7" t="n"/>
       <c r="W71" s="7" t="n"/>
@@ -3768,7 +3063,7 @@
     </row>
     <row r="72">
       <c r="A72" s="6" t="n"/>
-      <c r="B72" s="16" t="n"/>
+      <c r="B72" s="17" t="n"/>
       <c r="C72" s="7" t="n"/>
       <c r="D72" s="7" t="n"/>
       <c r="E72" s="7" t="n"/>
@@ -3794,7 +3089,7 @@
     </row>
     <row r="73">
       <c r="A73" s="6" t="n"/>
-      <c r="B73" s="16" t="n"/>
+      <c r="B73" s="17" t="n"/>
       <c r="C73" s="7" t="n"/>
       <c r="D73" s="7" t="n"/>
       <c r="E73" s="7" t="n"/>
@@ -3819,84 +3114,40 @@
       <c r="X73" s="19" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="20" t="n">
-        <v>21</v>
-      </c>
-      <c r="B74" s="16" t="n"/>
+      <c r="A74" s="16" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="B74" s="17" t="n"/>
       <c r="C74" s="7" t="n"/>
-      <c r="D74" s="21" t="inlineStr">
+      <c r="D74" s="20" t="inlineStr">
         <is>
           <t>S-14-2</t>
         </is>
       </c>
-      <c r="E74" s="21" t="n">
+      <c r="E74" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="F74" s="21" t="n">
+      <c r="F74" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="G74" s="21" t="n">
+      <c r="G74" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="H74" s="21" t="n">
+      <c r="H74" s="20" t="n">
         <v>16</v>
       </c>
       <c r="I74" s="7" t="n"/>
-      <c r="J74" s="21" t="inlineStr">
-        <is>
-          <t>SM</t>
-        </is>
-      </c>
-      <c r="K74" s="22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L74" s="22" t="inlineStr">
-        <is>
-          <t>62.9</t>
-        </is>
-      </c>
-      <c r="M74" s="22" t="inlineStr">
-        <is>
-          <t>27.3</t>
-        </is>
-      </c>
-      <c r="N74" s="22" t="inlineStr">
-        <is>
-          <t>9.8</t>
-        </is>
-      </c>
-      <c r="O74" s="22" t="inlineStr">
-        <is>
-          <t>28.1</t>
-        </is>
-      </c>
-      <c r="P74" s="22" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="Q74" s="22" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="R74" s="22" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="S74" s="22" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="T74" s="22" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="J74" s="7" t="n"/>
+      <c r="K74" s="7" t="n"/>
+      <c r="L74" s="7" t="n"/>
+      <c r="M74" s="7" t="n"/>
+      <c r="N74" s="7" t="n"/>
+      <c r="O74" s="7" t="n"/>
+      <c r="P74" s="7" t="n"/>
+      <c r="Q74" s="7" t="n"/>
+      <c r="R74" s="7" t="n"/>
+      <c r="S74" s="7" t="n"/>
+      <c r="T74" s="7" t="n"/>
       <c r="U74" s="7" t="n"/>
       <c r="V74" s="7" t="n"/>
       <c r="W74" s="7" t="n"/>
@@ -3904,7 +3155,7 @@
     </row>
     <row r="75">
       <c r="A75" s="6" t="n"/>
-      <c r="B75" s="16" t="n"/>
+      <c r="B75" s="17" t="n"/>
       <c r="C75" s="7" t="n"/>
       <c r="D75" s="7" t="n"/>
       <c r="E75" s="7" t="n"/>
@@ -3930,7 +3181,7 @@
     </row>
     <row r="76">
       <c r="A76" s="6" t="n"/>
-      <c r="B76" s="16" t="n"/>
+      <c r="B76" s="17" t="n"/>
       <c r="C76" s="7" t="n"/>
       <c r="D76" s="7" t="n"/>
       <c r="E76" s="7" t="n"/>
@@ -3955,84 +3206,40 @@
       <c r="X76" s="19" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="20" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="B77" s="16" t="n"/>
+      <c r="A77" s="16" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="B77" s="17" t="n"/>
       <c r="C77" s="7" t="n"/>
-      <c r="D77" s="21" t="inlineStr">
+      <c r="D77" s="20" t="inlineStr">
         <is>
           <t>S-15-2</t>
         </is>
       </c>
-      <c r="E77" s="21" t="n">
+      <c r="E77" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="F77" s="21" t="n">
+      <c r="F77" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="G77" s="21" t="n">
+      <c r="G77" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="H77" s="21" t="n">
+      <c r="H77" s="20" t="n">
         <v>18</v>
       </c>
       <c r="I77" s="7" t="n"/>
-      <c r="J77" s="21" t="inlineStr">
-        <is>
-          <t>SM</t>
-        </is>
-      </c>
-      <c r="K77" s="22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L77" s="22" t="inlineStr">
-        <is>
-          <t>77.5</t>
-        </is>
-      </c>
-      <c r="M77" s="22" t="inlineStr">
-        <is>
-          <t>16.6</t>
-        </is>
-      </c>
-      <c r="N77" s="22" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
-      <c r="O77" s="22" t="inlineStr">
-        <is>
-          <t>29.6</t>
-        </is>
-      </c>
-      <c r="P77" s="22" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="Q77" s="22" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="R77" s="22" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="S77" s="22" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="T77" s="22" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="J77" s="7" t="n"/>
+      <c r="K77" s="7" t="n"/>
+      <c r="L77" s="7" t="n"/>
+      <c r="M77" s="7" t="n"/>
+      <c r="N77" s="7" t="n"/>
+      <c r="O77" s="7" t="n"/>
+      <c r="P77" s="7" t="n"/>
+      <c r="Q77" s="7" t="n"/>
+      <c r="R77" s="7" t="n"/>
+      <c r="S77" s="7" t="n"/>
+      <c r="T77" s="7" t="n"/>
       <c r="U77" s="7" t="n"/>
       <c r="V77" s="7" t="n"/>
       <c r="W77" s="7" t="n"/>
@@ -4040,7 +3247,7 @@
     </row>
     <row r="78">
       <c r="A78" s="6" t="n"/>
-      <c r="B78" s="16" t="n"/>
+      <c r="B78" s="17" t="n"/>
       <c r="C78" s="7" t="n"/>
       <c r="D78" s="7" t="n"/>
       <c r="E78" s="7" t="n"/>
@@ -4066,7 +3273,7 @@
     </row>
     <row r="79">
       <c r="A79" s="6" t="n"/>
-      <c r="B79" s="16" t="n"/>
+      <c r="B79" s="17" t="n"/>
       <c r="C79" s="7" t="n"/>
       <c r="D79" s="7" t="n"/>
       <c r="E79" s="7" t="n"/>
@@ -4091,84 +3298,40 @@
       <c r="X79" s="19" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" s="20" t="n">
+      <c r="A80" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="B80" s="16" t="n"/>
+      <c r="B80" s="17" t="n"/>
       <c r="C80" s="7" t="n"/>
-      <c r="D80" s="21" t="inlineStr">
+      <c r="D80" s="20" t="inlineStr">
         <is>
           <t>S-16-2</t>
         </is>
       </c>
-      <c r="E80" s="21" t="n">
+      <c r="E80" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="F80" s="21" t="n">
+      <c r="F80" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="G80" s="21" t="n">
+      <c r="G80" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="H80" s="21" t="n">
+      <c r="H80" s="20" t="n">
         <v>20</v>
       </c>
       <c r="I80" s="7" t="n"/>
-      <c r="J80" s="21" t="inlineStr">
-        <is>
-          <t>SM</t>
-        </is>
-      </c>
-      <c r="K80" s="22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L80" s="22" t="inlineStr">
-        <is>
-          <t>64.9</t>
-        </is>
-      </c>
-      <c r="M80" s="22" t="inlineStr">
-        <is>
-          <t>25.8</t>
-        </is>
-      </c>
-      <c r="N80" s="22" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
-      </c>
-      <c r="O80" s="22" t="inlineStr">
-        <is>
-          <t>27.9</t>
-        </is>
-      </c>
-      <c r="P80" s="22" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="Q80" s="22" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="R80" s="22" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="S80" s="22" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="T80" s="22" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="J80" s="7" t="n"/>
+      <c r="K80" s="7" t="n"/>
+      <c r="L80" s="7" t="n"/>
+      <c r="M80" s="7" t="n"/>
+      <c r="N80" s="7" t="n"/>
+      <c r="O80" s="7" t="n"/>
+      <c r="P80" s="7" t="n"/>
+      <c r="Q80" s="7" t="n"/>
+      <c r="R80" s="7" t="n"/>
+      <c r="S80" s="7" t="n"/>
+      <c r="T80" s="7" t="n"/>
       <c r="U80" s="7" t="n"/>
       <c r="V80" s="7" t="n"/>
       <c r="W80" s="7" t="n"/>
@@ -4176,7 +3339,7 @@
     </row>
     <row r="81">
       <c r="A81" s="6" t="n"/>
-      <c r="B81" s="16" t="n"/>
+      <c r="B81" s="17" t="n"/>
       <c r="C81" s="7" t="n"/>
       <c r="D81" s="7" t="n"/>
       <c r="E81" s="7" t="n"/>
@@ -4202,7 +3365,7 @@
     </row>
     <row r="82">
       <c r="A82" s="6" t="n"/>
-      <c r="B82" s="16" t="n"/>
+      <c r="B82" s="17" t="n"/>
       <c r="C82" s="7" t="n"/>
       <c r="D82" s="7" t="n"/>
       <c r="E82" s="7" t="n"/>
@@ -4227,84 +3390,38 @@
       <c r="X82" s="19" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" s="20" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="B83" s="16" t="n"/>
+      <c r="A83" s="6" t="n"/>
+      <c r="B83" s="17" t="n"/>
       <c r="C83" s="7" t="n"/>
-      <c r="D83" s="21" t="inlineStr">
+      <c r="D83" s="20" t="inlineStr">
         <is>
           <t>S-17-2</t>
         </is>
       </c>
-      <c r="E83" s="21" t="n">
+      <c r="E83" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="F83" s="21" t="n">
+      <c r="F83" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="G83" s="21" t="n">
+      <c r="G83" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="H83" s="21" t="n">
+      <c r="H83" s="20" t="n">
         <v>18</v>
       </c>
       <c r="I83" s="7" t="n"/>
-      <c r="J83" s="21" t="inlineStr">
-        <is>
-          <t>SM</t>
-        </is>
-      </c>
-      <c r="K83" s="22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L83" s="22" t="inlineStr">
-        <is>
-          <t>84.3</t>
-        </is>
-      </c>
-      <c r="M83" s="22" t="inlineStr">
-        <is>
-          <t>11.6</t>
-        </is>
-      </c>
-      <c r="N83" s="22" t="inlineStr">
-        <is>
-          <t>4.1</t>
-        </is>
-      </c>
-      <c r="O83" s="22" t="inlineStr">
-        <is>
-          <t>30.3</t>
-        </is>
-      </c>
-      <c r="P83" s="22" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="Q83" s="22" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="R83" s="22" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="S83" s="22" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="T83" s="22" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="J83" s="7" t="n"/>
+      <c r="K83" s="7" t="n"/>
+      <c r="L83" s="7" t="n"/>
+      <c r="M83" s="7" t="n"/>
+      <c r="N83" s="7" t="n"/>
+      <c r="O83" s="7" t="n"/>
+      <c r="P83" s="7" t="n"/>
+      <c r="Q83" s="7" t="n"/>
+      <c r="R83" s="7" t="n"/>
+      <c r="S83" s="7" t="n"/>
+      <c r="T83" s="7" t="n"/>
       <c r="U83" s="7" t="n"/>
       <c r="V83" s="7" t="n"/>
       <c r="W83" s="7" t="n"/>
@@ -4312,7 +3429,7 @@
     </row>
     <row r="84">
       <c r="A84" s="6" t="n"/>
-      <c r="B84" s="16" t="n"/>
+      <c r="B84" s="17" t="n"/>
       <c r="C84" s="7" t="n"/>
       <c r="D84" s="7" t="n"/>
       <c r="E84" s="7" t="n"/>
@@ -4338,7 +3455,7 @@
     </row>
     <row r="85">
       <c r="A85" s="6" t="n"/>
-      <c r="B85" s="16" t="n"/>
+      <c r="B85" s="17" t="n"/>
       <c r="C85" s="7" t="n"/>
       <c r="D85" s="7" t="n"/>
       <c r="E85" s="7" t="n"/>
@@ -4363,84 +3480,38 @@
       <c r="X85" s="19" t="n"/>
     </row>
     <row r="86">
-      <c r="A86" s="20" t="n">
-        <v>27</v>
-      </c>
-      <c r="B86" s="16" t="n"/>
+      <c r="A86" s="6" t="n"/>
+      <c r="B86" s="17" t="n"/>
       <c r="C86" s="7" t="n"/>
-      <c r="D86" s="21" t="inlineStr">
+      <c r="D86" s="20" t="inlineStr">
         <is>
           <t>S-18-2</t>
         </is>
       </c>
-      <c r="E86" s="21" t="n">
+      <c r="E86" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="F86" s="21" t="n">
+      <c r="F86" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="G86" s="21" t="n">
+      <c r="G86" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="H86" s="21" t="n">
+      <c r="H86" s="20" t="n">
         <v>21</v>
       </c>
       <c r="I86" s="7" t="n"/>
-      <c r="J86" s="21" t="inlineStr">
-        <is>
-          <t>SP-SM</t>
-        </is>
-      </c>
-      <c r="K86" s="22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L86" s="22" t="inlineStr">
-        <is>
-          <t>88.1</t>
-        </is>
-      </c>
-      <c r="M86" s="22" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
-      </c>
-      <c r="N86" s="22" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="O86" s="22" t="inlineStr">
-        <is>
-          <t>28.4</t>
-        </is>
-      </c>
-      <c r="P86" s="22" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="Q86" s="22" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="R86" s="22" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="S86" s="22" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="T86" s="22" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="J86" s="7" t="n"/>
+      <c r="K86" s="7" t="n"/>
+      <c r="L86" s="7" t="n"/>
+      <c r="M86" s="7" t="n"/>
+      <c r="N86" s="7" t="n"/>
+      <c r="O86" s="7" t="n"/>
+      <c r="P86" s="7" t="n"/>
+      <c r="Q86" s="7" t="n"/>
+      <c r="R86" s="7" t="n"/>
+      <c r="S86" s="7" t="n"/>
+      <c r="T86" s="7" t="n"/>
       <c r="U86" s="7" t="n"/>
       <c r="V86" s="7" t="n"/>
       <c r="W86" s="7" t="n"/>
@@ -4448,7 +3519,7 @@
     </row>
     <row r="87">
       <c r="A87" s="6" t="n"/>
-      <c r="B87" s="16" t="n"/>
+      <c r="B87" s="17" t="n"/>
       <c r="C87" s="7" t="n"/>
       <c r="D87" s="7" t="n"/>
       <c r="E87" s="7" t="n"/>
@@ -4474,7 +3545,7 @@
     </row>
     <row r="88">
       <c r="A88" s="6" t="n"/>
-      <c r="B88" s="16" t="n"/>
+      <c r="B88" s="17" t="n"/>
       <c r="C88" s="7" t="n"/>
       <c r="D88" s="7" t="n"/>
       <c r="E88" s="7" t="n"/>
@@ -4499,84 +3570,38 @@
       <c r="X88" s="19" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" s="20" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="B89" s="16" t="n"/>
+      <c r="A89" s="6" t="n"/>
+      <c r="B89" s="17" t="n"/>
       <c r="C89" s="7" t="n"/>
-      <c r="D89" s="21" t="inlineStr">
+      <c r="D89" s="20" t="inlineStr">
         <is>
           <t>S-19-2</t>
         </is>
       </c>
-      <c r="E89" s="21" t="n">
+      <c r="E89" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="F89" s="21" t="n">
+      <c r="F89" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="G89" s="21" t="n">
+      <c r="G89" s="20" t="n">
         <v>15</v>
       </c>
-      <c r="H89" s="21" t="n">
+      <c r="H89" s="20" t="n">
         <v>25</v>
       </c>
       <c r="I89" s="7" t="n"/>
-      <c r="J89" s="21" t="inlineStr">
-        <is>
-          <t>SM</t>
-        </is>
-      </c>
-      <c r="K89" s="22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L89" s="22" t="inlineStr">
-        <is>
-          <t>82.0</t>
-        </is>
-      </c>
-      <c r="M89" s="22" t="inlineStr">
-        <is>
-          <t>13.2</t>
-        </is>
-      </c>
-      <c r="N89" s="22" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="O89" s="22" t="inlineStr">
-        <is>
-          <t>30.9</t>
-        </is>
-      </c>
-      <c r="P89" s="22" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="Q89" s="22" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="R89" s="22" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="S89" s="22" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="T89" s="22" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="J89" s="7" t="n"/>
+      <c r="K89" s="7" t="n"/>
+      <c r="L89" s="7" t="n"/>
+      <c r="M89" s="7" t="n"/>
+      <c r="N89" s="7" t="n"/>
+      <c r="O89" s="7" t="n"/>
+      <c r="P89" s="7" t="n"/>
+      <c r="Q89" s="7" t="n"/>
+      <c r="R89" s="7" t="n"/>
+      <c r="S89" s="7" t="n"/>
+      <c r="T89" s="7" t="n"/>
       <c r="U89" s="7" t="n"/>
       <c r="V89" s="7" t="n"/>
       <c r="W89" s="7" t="n"/>
@@ -4584,7 +3609,7 @@
     </row>
     <row r="90">
       <c r="A90" s="6" t="n"/>
-      <c r="B90" s="16" t="n"/>
+      <c r="B90" s="17" t="n"/>
       <c r="C90" s="7" t="n"/>
       <c r="D90" s="7" t="n"/>
       <c r="E90" s="7" t="n"/>
@@ -4610,7 +3635,7 @@
     </row>
     <row r="91">
       <c r="A91" s="6" t="n"/>
-      <c r="B91" s="16" t="n"/>
+      <c r="B91" s="17" t="n"/>
       <c r="C91" s="7" t="n"/>
       <c r="D91" s="7" t="n"/>
       <c r="E91" s="7" t="n"/>
@@ -4635,114 +3660,68 @@
       <c r="X91" s="19" t="n"/>
     </row>
     <row r="92">
-      <c r="A92" s="20" t="n">
-        <v>30</v>
-      </c>
-      <c r="B92" s="16" t="n"/>
+      <c r="A92" s="6" t="n"/>
+      <c r="B92" s="17" t="n"/>
       <c r="C92" s="7" t="n"/>
-      <c r="D92" s="21" t="inlineStr">
+      <c r="D92" s="20" t="inlineStr">
         <is>
           <t>S-20-2</t>
         </is>
       </c>
-      <c r="E92" s="21" t="n">
+      <c r="E92" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="F92" s="21" t="n">
+      <c r="F92" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="G92" s="21" t="n">
+      <c r="G92" s="20" t="n">
         <v>15</v>
       </c>
-      <c r="H92" s="21" t="n">
+      <c r="H92" s="20" t="n">
         <v>26</v>
       </c>
       <c r="I92" s="7" t="n"/>
-      <c r="J92" s="21" t="inlineStr">
-        <is>
-          <t>SM</t>
-        </is>
-      </c>
-      <c r="K92" s="22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L92" s="22" t="inlineStr">
-        <is>
-          <t>86.0</t>
-        </is>
-      </c>
-      <c r="M92" s="22" t="inlineStr">
-        <is>
-          <t>10.3</t>
-        </is>
-      </c>
-      <c r="N92" s="22" t="inlineStr">
-        <is>
-          <t>3.7</t>
-        </is>
-      </c>
-      <c r="O92" s="22" t="inlineStr">
-        <is>
-          <t>28.0</t>
-        </is>
-      </c>
-      <c r="P92" s="22" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="Q92" s="22" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="R92" s="22" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="S92" s="22" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="T92" s="22" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="J92" s="7" t="n"/>
+      <c r="K92" s="7" t="n"/>
+      <c r="L92" s="7" t="n"/>
+      <c r="M92" s="7" t="n"/>
+      <c r="N92" s="7" t="n"/>
+      <c r="O92" s="7" t="n"/>
+      <c r="P92" s="7" t="n"/>
+      <c r="Q92" s="7" t="n"/>
+      <c r="R92" s="7" t="n"/>
+      <c r="S92" s="7" t="n"/>
+      <c r="T92" s="7" t="n"/>
       <c r="U92" s="7" t="n"/>
       <c r="V92" s="7" t="n"/>
       <c r="W92" s="7" t="n"/>
       <c r="X92" s="19" t="n"/>
     </row>
     <row r="93">
-      <c r="A93" s="23" t="n"/>
-      <c r="B93" s="24" t="n"/>
-      <c r="C93" s="24" t="n"/>
-      <c r="D93" s="24" t="n"/>
-      <c r="E93" s="24" t="n"/>
-      <c r="F93" s="24" t="n"/>
-      <c r="G93" s="24" t="n"/>
-      <c r="H93" s="24" t="n"/>
-      <c r="I93" s="24" t="n"/>
-      <c r="J93" s="24" t="n"/>
-      <c r="K93" s="24" t="n"/>
-      <c r="L93" s="24" t="n"/>
-      <c r="M93" s="24" t="n"/>
-      <c r="N93" s="24" t="n"/>
-      <c r="O93" s="24" t="n"/>
-      <c r="P93" s="24" t="n"/>
-      <c r="Q93" s="24" t="n"/>
-      <c r="R93" s="24" t="n"/>
-      <c r="S93" s="24" t="n"/>
-      <c r="T93" s="24" t="n"/>
-      <c r="U93" s="24" t="n"/>
-      <c r="V93" s="24" t="n"/>
-      <c r="W93" s="24" t="n"/>
-      <c r="X93" s="24" t="n"/>
+      <c r="A93" s="21" t="n"/>
+      <c r="B93" s="22" t="n"/>
+      <c r="C93" s="22" t="n"/>
+      <c r="D93" s="22" t="n"/>
+      <c r="E93" s="22" t="n"/>
+      <c r="F93" s="22" t="n"/>
+      <c r="G93" s="22" t="n"/>
+      <c r="H93" s="22" t="n"/>
+      <c r="I93" s="22" t="n"/>
+      <c r="J93" s="22" t="n"/>
+      <c r="K93" s="22" t="n"/>
+      <c r="L93" s="22" t="n"/>
+      <c r="M93" s="22" t="n"/>
+      <c r="N93" s="22" t="n"/>
+      <c r="O93" s="22" t="n"/>
+      <c r="P93" s="22" t="n"/>
+      <c r="Q93" s="22" t="n"/>
+      <c r="R93" s="22" t="n"/>
+      <c r="S93" s="22" t="n"/>
+      <c r="T93" s="22" t="n"/>
+      <c r="U93" s="22" t="n"/>
+      <c r="V93" s="22" t="n"/>
+      <c r="W93" s="22" t="n"/>
+      <c r="X93" s="22" t="n"/>
     </row>
     <row r="94"/>
     <row r="95"/>
@@ -5318,75 +4297,75 @@
     <row r="108">
       <c r="A108" s="14" t="n"/>
       <c r="B108" s="7" t="n"/>
-      <c r="C108" s="7" t="n"/>
-      <c r="D108" s="7" t="n"/>
-      <c r="E108" s="7" t="n"/>
-      <c r="F108" s="7" t="n"/>
-      <c r="G108" s="7" t="n"/>
-      <c r="H108" s="7" t="n"/>
-      <c r="I108" s="7" t="n"/>
-      <c r="J108" s="7" t="n"/>
-      <c r="K108" s="8" t="inlineStr">
+      <c r="C108" s="13" t="n"/>
+      <c r="D108" s="13" t="n"/>
+      <c r="E108" s="13" t="n"/>
+      <c r="F108" s="13" t="n"/>
+      <c r="G108" s="13" t="n"/>
+      <c r="H108" s="13" t="n"/>
+      <c r="I108" s="13" t="n"/>
+      <c r="J108" s="13" t="n"/>
+      <c r="K108" s="12" t="inlineStr">
         <is>
           <t>Gravel</t>
         </is>
       </c>
-      <c r="L108" s="8" t="inlineStr">
+      <c r="L108" s="12" t="inlineStr">
         <is>
           <t>Sand</t>
         </is>
       </c>
-      <c r="M108" s="8" t="inlineStr">
+      <c r="M108" s="12" t="inlineStr">
         <is>
           <t>Silt</t>
         </is>
       </c>
-      <c r="N108" s="8" t="inlineStr">
+      <c r="N108" s="12" t="inlineStr">
         <is>
           <t>Clay</t>
         </is>
       </c>
-      <c r="O108" s="8" t="inlineStr">
+      <c r="O108" s="12" t="inlineStr">
         <is>
           <t>W(%)</t>
         </is>
       </c>
-      <c r="P108" s="8" t="inlineStr">
+      <c r="P108" s="12" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="Q108" s="8" t="inlineStr">
+      <c r="Q108" s="12" t="inlineStr">
         <is>
           <t>T/M³</t>
         </is>
       </c>
-      <c r="R108" s="8" t="inlineStr">
+      <c r="R108" s="12" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="S108" s="8" t="inlineStr">
+      <c r="S108" s="12" t="inlineStr">
         <is>
           <t>WL(%)</t>
         </is>
       </c>
-      <c r="T108" s="8" t="inlineStr">
+      <c r="T108" s="12" t="inlineStr">
         <is>
           <t>IP(%)</t>
         </is>
       </c>
-      <c r="U108" s="8" t="inlineStr">
+      <c r="U108" s="12" t="inlineStr">
         <is>
           <t>(kgf/cm²)</t>
         </is>
       </c>
-      <c r="V108" s="8" t="inlineStr">
+      <c r="V108" s="12" t="inlineStr">
         <is>
           <t>(Degree)</t>
         </is>
       </c>
-      <c r="W108" s="8" t="inlineStr">
+      <c r="W108" s="12" t="inlineStr">
         <is>
           <t>(kgf/cm²)</t>
         </is>
@@ -5399,33 +4378,35 @@
     </row>
     <row r="109">
       <c r="A109" s="6" t="n"/>
-      <c r="B109" s="16" t="n"/>
-      <c r="C109" s="17" t="n"/>
-      <c r="D109" s="17" t="n"/>
-      <c r="E109" s="17" t="n"/>
-      <c r="F109" s="17" t="n"/>
-      <c r="G109" s="17" t="n"/>
-      <c r="H109" s="17" t="n"/>
-      <c r="I109" s="17" t="n"/>
-      <c r="J109" s="17" t="n"/>
-      <c r="K109" s="17" t="n"/>
-      <c r="L109" s="17" t="n"/>
-      <c r="M109" s="17" t="n"/>
-      <c r="N109" s="17" t="n"/>
-      <c r="O109" s="17" t="n"/>
-      <c r="P109" s="17" t="n"/>
-      <c r="Q109" s="17" t="n"/>
-      <c r="R109" s="17" t="n"/>
-      <c r="S109" s="17" t="n"/>
-      <c r="T109" s="17" t="n"/>
-      <c r="U109" s="17" t="n"/>
-      <c r="V109" s="17" t="n"/>
-      <c r="W109" s="17" t="n"/>
+      <c r="B109" s="17" t="n"/>
+      <c r="C109" s="7" t="n"/>
+      <c r="D109" s="7" t="n"/>
+      <c r="E109" s="7" t="n"/>
+      <c r="F109" s="7" t="n"/>
+      <c r="G109" s="7" t="n"/>
+      <c r="H109" s="7" t="n"/>
+      <c r="I109" s="7" t="n"/>
+      <c r="J109" s="7" t="n"/>
+      <c r="K109" s="7" t="n"/>
+      <c r="L109" s="7" t="n"/>
+      <c r="M109" s="7" t="n"/>
+      <c r="N109" s="7" t="n"/>
+      <c r="O109" s="7" t="n"/>
+      <c r="P109" s="7" t="n"/>
+      <c r="Q109" s="7" t="n"/>
+      <c r="R109" s="7" t="n"/>
+      <c r="S109" s="7" t="n"/>
+      <c r="T109" s="7" t="n"/>
+      <c r="U109" s="7" t="n"/>
+      <c r="V109" s="7" t="n"/>
+      <c r="W109" s="7" t="n"/>
       <c r="X109" s="18" t="n"/>
     </row>
     <row r="110">
-      <c r="A110" s="6" t="n"/>
-      <c r="B110" s="16" t="n"/>
+      <c r="A110" s="16" t="n">
+        <v>31</v>
+      </c>
+      <c r="B110" s="17" t="n"/>
       <c r="C110" s="7" t="n"/>
       <c r="D110" s="7" t="n"/>
       <c r="E110" s="7" t="n"/>
@@ -5450,84 +4431,38 @@
       <c r="X110" s="19" t="n"/>
     </row>
     <row r="111">
-      <c r="A111" s="20" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="B111" s="16" t="n"/>
+      <c r="A111" s="6" t="n"/>
+      <c r="B111" s="17" t="n"/>
       <c r="C111" s="7" t="n"/>
-      <c r="D111" s="21" t="inlineStr">
+      <c r="D111" s="20" t="inlineStr">
         <is>
           <t>S-21-2</t>
         </is>
       </c>
-      <c r="E111" s="21" t="n">
+      <c r="E111" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="F111" s="21" t="n">
+      <c r="F111" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="G111" s="21" t="n">
+      <c r="G111" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="H111" s="21" t="n">
+      <c r="H111" s="20" t="n">
         <v>13</v>
       </c>
       <c r="I111" s="7" t="n"/>
-      <c r="J111" s="21" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
-      <c r="K111" s="22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L111" s="22" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
-      <c r="M111" s="22" t="inlineStr">
-        <is>
-          <t>54.5</t>
-        </is>
-      </c>
-      <c r="N111" s="22" t="inlineStr">
-        <is>
-          <t>39.7</t>
-        </is>
-      </c>
-      <c r="O111" s="22" t="inlineStr">
-        <is>
-          <t>23.1</t>
-        </is>
-      </c>
-      <c r="P111" s="22" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="Q111" s="22" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="R111" s="22" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="S111" s="22" t="inlineStr">
-        <is>
-          <t>39.2</t>
-        </is>
-      </c>
-      <c r="T111" s="22" t="inlineStr">
-        <is>
-          <t>17.6</t>
-        </is>
-      </c>
+      <c r="J111" s="7" t="n"/>
+      <c r="K111" s="7" t="n"/>
+      <c r="L111" s="7" t="n"/>
+      <c r="M111" s="7" t="n"/>
+      <c r="N111" s="7" t="n"/>
+      <c r="O111" s="7" t="n"/>
+      <c r="P111" s="7" t="n"/>
+      <c r="Q111" s="7" t="n"/>
+      <c r="R111" s="7" t="n"/>
+      <c r="S111" s="7" t="n"/>
+      <c r="T111" s="7" t="n"/>
       <c r="U111" s="7" t="n"/>
       <c r="V111" s="7" t="n"/>
       <c r="W111" s="7" t="n"/>
@@ -5535,7 +4470,7 @@
     </row>
     <row r="112">
       <c r="A112" s="6" t="n"/>
-      <c r="B112" s="16" t="n"/>
+      <c r="B112" s="17" t="n"/>
       <c r="C112" s="7" t="n"/>
       <c r="D112" s="7" t="n"/>
       <c r="E112" s="7" t="n"/>
@@ -5561,7 +4496,7 @@
     </row>
     <row r="113">
       <c r="A113" s="6" t="n"/>
-      <c r="B113" s="16" t="n"/>
+      <c r="B113" s="17" t="n"/>
       <c r="C113" s="7" t="n"/>
       <c r="D113" s="7" t="n"/>
       <c r="E113" s="7" t="n"/>
@@ -5586,84 +4521,38 @@
       <c r="X113" s="19" t="n"/>
     </row>
     <row r="114">
-      <c r="A114" s="20" t="n">
+      <c r="A114" s="6" t="n"/>
+      <c r="B114" s="17" t="n"/>
+      <c r="C114" s="7" t="n"/>
+      <c r="D114" s="20" t="inlineStr">
+        <is>
+          <t>S-22-2</t>
+        </is>
+      </c>
+      <c r="E114" s="20" t="n">
+        <v>7</v>
+      </c>
+      <c r="F114" s="20" t="n">
+        <v>13</v>
+      </c>
+      <c r="G114" s="20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H114" s="20" t="n">
         <v>33</v>
       </c>
-      <c r="B114" s="16" t="n"/>
-      <c r="C114" s="7" t="n"/>
-      <c r="D114" s="21" t="inlineStr">
-        <is>
-          <t>S-22-2</t>
-        </is>
-      </c>
-      <c r="E114" s="21" t="n">
-        <v>7</v>
-      </c>
-      <c r="F114" s="21" t="n">
-        <v>13</v>
-      </c>
-      <c r="G114" s="21" t="n">
-        <v>20</v>
-      </c>
-      <c r="H114" s="21" t="n">
-        <v>33</v>
-      </c>
       <c r="I114" s="7" t="n"/>
-      <c r="J114" s="21" t="inlineStr">
-        <is>
-          <t>SM</t>
-        </is>
-      </c>
-      <c r="K114" s="22" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="L114" s="22" t="inlineStr">
-        <is>
-          <t>64.5</t>
-        </is>
-      </c>
-      <c r="M114" s="22" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="N114" s="22" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="O114" s="22" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="P114" s="22" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="Q114" s="22" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="R114" s="22" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="S114" s="22" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="T114" s="22" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="J114" s="7" t="n"/>
+      <c r="K114" s="7" t="n"/>
+      <c r="L114" s="7" t="n"/>
+      <c r="M114" s="7" t="n"/>
+      <c r="N114" s="7" t="n"/>
+      <c r="O114" s="7" t="n"/>
+      <c r="P114" s="7" t="n"/>
+      <c r="Q114" s="7" t="n"/>
+      <c r="R114" s="7" t="n"/>
+      <c r="S114" s="7" t="n"/>
+      <c r="T114" s="7" t="n"/>
       <c r="U114" s="7" t="n"/>
       <c r="V114" s="7" t="n"/>
       <c r="W114" s="7" t="n"/>
@@ -5671,7 +4560,7 @@
     </row>
     <row r="115">
       <c r="A115" s="6" t="n"/>
-      <c r="B115" s="16" t="n"/>
+      <c r="B115" s="17" t="n"/>
       <c r="C115" s="7" t="n"/>
       <c r="D115" s="7" t="n"/>
       <c r="E115" s="7" t="n"/>
@@ -5697,7 +4586,7 @@
     </row>
     <row r="116">
       <c r="A116" s="6" t="n"/>
-      <c r="B116" s="16" t="n"/>
+      <c r="B116" s="17" t="n"/>
       <c r="C116" s="7" t="n"/>
       <c r="D116" s="7" t="n"/>
       <c r="E116" s="7" t="n"/>
@@ -5722,84 +4611,38 @@
       <c r="X116" s="19" t="n"/>
     </row>
     <row r="117">
-      <c r="A117" s="20" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="B117" s="16" t="n"/>
+      <c r="A117" s="6" t="n"/>
+      <c r="B117" s="17" t="n"/>
       <c r="C117" s="7" t="n"/>
-      <c r="D117" s="21" t="inlineStr">
+      <c r="D117" s="20" t="inlineStr">
         <is>
           <t>S-23-2</t>
         </is>
       </c>
-      <c r="E117" s="21" t="n">
+      <c r="E117" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="F117" s="21" t="n">
+      <c r="F117" s="20" t="n">
         <v>20</v>
       </c>
-      <c r="G117" s="21" t="n">
+      <c r="G117" s="20" t="n">
         <v>25</v>
       </c>
-      <c r="H117" s="21" t="n">
+      <c r="H117" s="20" t="n">
         <v>45</v>
       </c>
       <c r="I117" s="7" t="n"/>
-      <c r="J117" s="21" t="inlineStr">
-        <is>
-          <t>SM</t>
-        </is>
-      </c>
-      <c r="K117" s="22" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="L117" s="22" t="inlineStr">
-        <is>
-          <t>62.0</t>
-        </is>
-      </c>
-      <c r="M117" s="22" t="inlineStr">
-        <is>
-          <t>26.5</t>
-        </is>
-      </c>
-      <c r="N117" s="22" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="O117" s="22" t="inlineStr">
-        <is>
-          <t>26.2</t>
-        </is>
-      </c>
-      <c r="P117" s="22" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="Q117" s="22" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="R117" s="22" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="S117" s="22" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="T117" s="22" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="J117" s="7" t="n"/>
+      <c r="K117" s="7" t="n"/>
+      <c r="L117" s="7" t="n"/>
+      <c r="M117" s="7" t="n"/>
+      <c r="N117" s="7" t="n"/>
+      <c r="O117" s="7" t="n"/>
+      <c r="P117" s="7" t="n"/>
+      <c r="Q117" s="7" t="n"/>
+      <c r="R117" s="7" t="n"/>
+      <c r="S117" s="7" t="n"/>
+      <c r="T117" s="7" t="n"/>
       <c r="U117" s="7" t="n"/>
       <c r="V117" s="7" t="n"/>
       <c r="W117" s="7" t="n"/>
@@ -5807,7 +4650,7 @@
     </row>
     <row r="118">
       <c r="A118" s="6" t="n"/>
-      <c r="B118" s="16" t="n"/>
+      <c r="B118" s="17" t="n"/>
       <c r="C118" s="7" t="n"/>
       <c r="D118" s="7" t="n"/>
       <c r="E118" s="7" t="n"/>
@@ -5833,7 +4676,7 @@
     </row>
     <row r="119">
       <c r="A119" s="6" t="n"/>
-      <c r="B119" s="16" t="n"/>
+      <c r="B119" s="17" t="n"/>
       <c r="C119" s="7" t="n"/>
       <c r="D119" s="7" t="n"/>
       <c r="E119" s="7" t="n"/>
@@ -5858,84 +4701,38 @@
       <c r="X119" s="19" t="n"/>
     </row>
     <row r="120">
-      <c r="A120" s="20" t="n">
-        <v>36</v>
-      </c>
-      <c r="B120" s="16" t="n"/>
+      <c r="A120" s="6" t="n"/>
+      <c r="B120" s="17" t="n"/>
       <c r="C120" s="7" t="n"/>
-      <c r="D120" s="21" t="inlineStr">
+      <c r="D120" s="20" t="inlineStr">
         <is>
           <t>S-24-2</t>
         </is>
       </c>
-      <c r="E120" s="21" t="n">
+      <c r="E120" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="F120" s="21" t="n">
+      <c r="F120" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="G120" s="21" t="n">
+      <c r="G120" s="20" t="n">
         <v>18</v>
       </c>
-      <c r="H120" s="21" t="n">
+      <c r="H120" s="20" t="n">
         <v>30</v>
       </c>
       <c r="I120" s="7" t="n"/>
-      <c r="J120" s="21" t="inlineStr">
-        <is>
-          <t>SM</t>
-        </is>
-      </c>
-      <c r="K120" s="22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L120" s="22" t="inlineStr">
-        <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="M120" s="22" t="inlineStr">
-        <is>
-          <t>25.2</t>
-        </is>
-      </c>
-      <c r="N120" s="22" t="inlineStr">
-        <is>
-          <t>9.1</t>
-        </is>
-      </c>
-      <c r="O120" s="22" t="inlineStr">
-        <is>
-          <t>25.8</t>
-        </is>
-      </c>
-      <c r="P120" s="22" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="Q120" s="22" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="R120" s="22" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="S120" s="22" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="T120" s="22" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="J120" s="7" t="n"/>
+      <c r="K120" s="7" t="n"/>
+      <c r="L120" s="7" t="n"/>
+      <c r="M120" s="7" t="n"/>
+      <c r="N120" s="7" t="n"/>
+      <c r="O120" s="7" t="n"/>
+      <c r="P120" s="7" t="n"/>
+      <c r="Q120" s="7" t="n"/>
+      <c r="R120" s="7" t="n"/>
+      <c r="S120" s="7" t="n"/>
+      <c r="T120" s="7" t="n"/>
       <c r="U120" s="7" t="n"/>
       <c r="V120" s="7" t="n"/>
       <c r="W120" s="7" t="n"/>
@@ -5943,7 +4740,7 @@
     </row>
     <row r="121">
       <c r="A121" s="6" t="n"/>
-      <c r="B121" s="16" t="n"/>
+      <c r="B121" s="17" t="n"/>
       <c r="C121" s="7" t="n"/>
       <c r="D121" s="7" t="n"/>
       <c r="E121" s="7" t="n"/>
@@ -5969,7 +4766,7 @@
     </row>
     <row r="122">
       <c r="A122" s="6" t="n"/>
-      <c r="B122" s="16" t="n"/>
+      <c r="B122" s="17" t="n"/>
       <c r="C122" s="7" t="n"/>
       <c r="D122" s="7" t="n"/>
       <c r="E122" s="7" t="n"/>
@@ -5994,84 +4791,38 @@
       <c r="X122" s="19" t="n"/>
     </row>
     <row r="123">
-      <c r="A123" s="20" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="B123" s="16" t="n"/>
+      <c r="A123" s="6" t="n"/>
+      <c r="B123" s="17" t="n"/>
       <c r="C123" s="7" t="n"/>
-      <c r="D123" s="21" t="inlineStr">
+      <c r="D123" s="20" t="inlineStr">
         <is>
           <t>S-25-2</t>
         </is>
       </c>
-      <c r="E123" s="21" t="n">
+      <c r="E123" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="F123" s="21" t="n">
+      <c r="F123" s="20" t="n">
         <v>13</v>
       </c>
-      <c r="G123" s="21" t="n">
+      <c r="G123" s="20" t="n">
         <v>18</v>
       </c>
-      <c r="H123" s="21" t="n">
+      <c r="H123" s="20" t="n">
         <v>31</v>
       </c>
       <c r="I123" s="7" t="n"/>
-      <c r="J123" s="21" t="inlineStr">
-        <is>
-          <t>SM</t>
-        </is>
-      </c>
-      <c r="K123" s="22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L123" s="22" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
-      <c r="M123" s="22" t="inlineStr">
-        <is>
-          <t>28.3</t>
-        </is>
-      </c>
-      <c r="N123" s="22" t="inlineStr">
-        <is>
-          <t>10.2</t>
-        </is>
-      </c>
-      <c r="O123" s="22" t="inlineStr">
-        <is>
-          <t>26.8</t>
-        </is>
-      </c>
-      <c r="P123" s="22" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="Q123" s="22" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="R123" s="22" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="S123" s="22" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="T123" s="22" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="J123" s="7" t="n"/>
+      <c r="K123" s="7" t="n"/>
+      <c r="L123" s="7" t="n"/>
+      <c r="M123" s="7" t="n"/>
+      <c r="N123" s="7" t="n"/>
+      <c r="O123" s="7" t="n"/>
+      <c r="P123" s="7" t="n"/>
+      <c r="Q123" s="7" t="n"/>
+      <c r="R123" s="7" t="n"/>
+      <c r="S123" s="7" t="n"/>
+      <c r="T123" s="7" t="n"/>
       <c r="U123" s="7" t="n"/>
       <c r="V123" s="7" t="n"/>
       <c r="W123" s="7" t="n"/>
@@ -6079,7 +4830,7 @@
     </row>
     <row r="124">
       <c r="A124" s="6" t="n"/>
-      <c r="B124" s="16" t="n"/>
+      <c r="B124" s="17" t="n"/>
       <c r="C124" s="7" t="n"/>
       <c r="D124" s="7" t="n"/>
       <c r="E124" s="7" t="n"/>
@@ -6105,7 +4856,7 @@
     </row>
     <row r="125">
       <c r="A125" s="6" t="n"/>
-      <c r="B125" s="16" t="n"/>
+      <c r="B125" s="17" t="n"/>
       <c r="C125" s="7" t="n"/>
       <c r="D125" s="7" t="n"/>
       <c r="E125" s="7" t="n"/>
@@ -6130,84 +4881,38 @@
       <c r="X125" s="19" t="n"/>
     </row>
     <row r="126">
-      <c r="A126" s="20" t="n">
-        <v>39</v>
-      </c>
-      <c r="B126" s="16" t="n"/>
+      <c r="A126" s="6" t="n"/>
+      <c r="B126" s="17" t="n"/>
       <c r="C126" s="7" t="n"/>
-      <c r="D126" s="21" t="inlineStr">
+      <c r="D126" s="20" t="inlineStr">
         <is>
           <t>S-26-2</t>
         </is>
       </c>
-      <c r="E126" s="21" t="n">
+      <c r="E126" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="F126" s="21" t="n">
+      <c r="F126" s="20" t="n">
         <v>15</v>
       </c>
-      <c r="G126" s="21" t="n">
+      <c r="G126" s="20" t="n">
         <v>23</v>
       </c>
-      <c r="H126" s="21" t="n">
+      <c r="H126" s="20" t="n">
         <v>38</v>
       </c>
       <c r="I126" s="7" t="n"/>
-      <c r="J126" s="21" t="inlineStr">
-        <is>
-          <t>SM</t>
-        </is>
-      </c>
-      <c r="K126" s="22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L126" s="22" t="inlineStr">
-        <is>
-          <t>77.2</t>
-        </is>
-      </c>
-      <c r="M126" s="22" t="inlineStr">
-        <is>
-          <t>16.8</t>
-        </is>
-      </c>
-      <c r="N126" s="22" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="O126" s="22" t="inlineStr">
-        <is>
-          <t>27.7</t>
-        </is>
-      </c>
-      <c r="P126" s="22" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="Q126" s="22" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="R126" s="22" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="S126" s="22" t="inlineStr">
-        <is>
-          <t>－</t>
-        </is>
-      </c>
-      <c r="T126" s="22" t="inlineStr">
-        <is>
-          <t>NP</t>
-        </is>
-      </c>
+      <c r="J126" s="7" t="n"/>
+      <c r="K126" s="7" t="n"/>
+      <c r="L126" s="7" t="n"/>
+      <c r="M126" s="7" t="n"/>
+      <c r="N126" s="7" t="n"/>
+      <c r="O126" s="7" t="n"/>
+      <c r="P126" s="7" t="n"/>
+      <c r="Q126" s="7" t="n"/>
+      <c r="R126" s="7" t="n"/>
+      <c r="S126" s="7" t="n"/>
+      <c r="T126" s="7" t="n"/>
       <c r="U126" s="7" t="n"/>
       <c r="V126" s="7" t="n"/>
       <c r="W126" s="7" t="n"/>
@@ -6215,7 +4920,7 @@
     </row>
     <row r="127">
       <c r="A127" s="6" t="n"/>
-      <c r="B127" s="16" t="n"/>
+      <c r="B127" s="17" t="n"/>
       <c r="C127" s="7" t="n"/>
       <c r="D127" s="7" t="n"/>
       <c r="E127" s="7" t="n"/>
@@ -6241,7 +4946,7 @@
     </row>
     <row r="128">
       <c r="A128" s="6" t="n"/>
-      <c r="B128" s="16" t="n"/>
+      <c r="B128" s="17" t="n"/>
       <c r="C128" s="7" t="n"/>
       <c r="D128" s="7" t="n"/>
       <c r="E128" s="7" t="n"/>
@@ -6266,84 +4971,38 @@
       <c r="X128" s="19" t="n"/>
     </row>
     <row r="129">
-      <c r="A129" s="20" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="B129" s="16" t="n"/>
+      <c r="A129" s="6" t="n"/>
+      <c r="B129" s="17" t="n"/>
       <c r="C129" s="7" t="n"/>
-      <c r="D129" s="21" t="inlineStr">
+      <c r="D129" s="20" t="inlineStr">
         <is>
           <t>S-27-2</t>
         </is>
       </c>
-      <c r="E129" s="21" t="n">
+      <c r="E129" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="F129" s="21" t="n">
+      <c r="F129" s="20" t="n">
         <v>26</v>
       </c>
-      <c r="G129" s="21" t="n">
+      <c r="G129" s="20" t="n">
         <v>74</v>
       </c>
-      <c r="H129" s="21" t="n">
+      <c r="H129" s="20" t="n">
         <v>100</v>
       </c>
       <c r="I129" s="7" t="n"/>
-      <c r="J129" s="21" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
-      <c r="K129" s="22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L129" s="22" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="M129" s="22" t="inlineStr">
-        <is>
-          <t>53.0</t>
-        </is>
-      </c>
-      <c r="N129" s="22" t="inlineStr">
-        <is>
-          <t>38.7</t>
-        </is>
-      </c>
-      <c r="O129" s="22" t="inlineStr">
-        <is>
-          <t>25.9</t>
-        </is>
-      </c>
-      <c r="P129" s="22" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="Q129" s="22" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="R129" s="22" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="S129" s="22" t="inlineStr">
-        <is>
-          <t>39.7</t>
-        </is>
-      </c>
-      <c r="T129" s="22" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
+      <c r="J129" s="7" t="n"/>
+      <c r="K129" s="7" t="n"/>
+      <c r="L129" s="7" t="n"/>
+      <c r="M129" s="7" t="n"/>
+      <c r="N129" s="7" t="n"/>
+      <c r="O129" s="7" t="n"/>
+      <c r="P129" s="7" t="n"/>
+      <c r="Q129" s="7" t="n"/>
+      <c r="R129" s="7" t="n"/>
+      <c r="S129" s="7" t="n"/>
+      <c r="T129" s="7" t="n"/>
       <c r="U129" s="7" t="n"/>
       <c r="V129" s="7" t="n"/>
       <c r="W129" s="7" t="n"/>
@@ -6351,7 +5010,7 @@
     </row>
     <row r="130">
       <c r="A130" s="6" t="n"/>
-      <c r="B130" s="16" t="n"/>
+      <c r="B130" s="17" t="n"/>
       <c r="C130" s="7" t="n"/>
       <c r="D130" s="7" t="n"/>
       <c r="E130" s="7" t="n"/>
@@ -6377,7 +5036,7 @@
     </row>
     <row r="131">
       <c r="A131" s="6" t="n"/>
-      <c r="B131" s="16" t="n"/>
+      <c r="B131" s="17" t="n"/>
       <c r="C131" s="7" t="n"/>
       <c r="D131" s="7" t="n"/>
       <c r="E131" s="7" t="n"/>
@@ -6403,7 +5062,7 @@
     </row>
     <row r="132">
       <c r="A132" s="6" t="n"/>
-      <c r="B132" s="16" t="n"/>
+      <c r="B132" s="17" t="n"/>
       <c r="C132" s="7" t="n"/>
       <c r="D132" s="7" t="n"/>
       <c r="E132" s="7" t="n"/>
@@ -6429,7 +5088,7 @@
     </row>
     <row r="133">
       <c r="A133" s="6" t="n"/>
-      <c r="B133" s="16" t="n"/>
+      <c r="B133" s="17" t="n"/>
       <c r="C133" s="7" t="n"/>
       <c r="D133" s="7" t="n"/>
       <c r="E133" s="7" t="n"/>
@@ -6454,8 +5113,10 @@
       <c r="X133" s="19" t="n"/>
     </row>
     <row r="134">
-      <c r="A134" s="6" t="n"/>
-      <c r="B134" s="16" t="n"/>
+      <c r="A134" s="16" t="n">
+        <v>43</v>
+      </c>
+      <c r="B134" s="17" t="n"/>
       <c r="C134" s="7" t="n"/>
       <c r="D134" s="7" t="n"/>
       <c r="E134" s="7" t="n"/>
@@ -6481,7 +5142,7 @@
     </row>
     <row r="135">
       <c r="A135" s="6" t="n"/>
-      <c r="B135" s="16" t="n"/>
+      <c r="B135" s="17" t="n"/>
       <c r="C135" s="7" t="n"/>
       <c r="D135" s="7" t="n"/>
       <c r="E135" s="7" t="n"/>
@@ -6507,7 +5168,7 @@
     </row>
     <row r="136">
       <c r="A136" s="6" t="n"/>
-      <c r="B136" s="16" t="n"/>
+      <c r="B136" s="17" t="n"/>
       <c r="C136" s="7" t="n"/>
       <c r="D136" s="7" t="n"/>
       <c r="E136" s="7" t="n"/>
@@ -6533,7 +5194,7 @@
     </row>
     <row r="137">
       <c r="A137" s="6" t="n"/>
-      <c r="B137" s="16" t="n"/>
+      <c r="B137" s="17" t="n"/>
       <c r="C137" s="7" t="n"/>
       <c r="D137" s="7" t="n"/>
       <c r="E137" s="7" t="n"/>
@@ -6559,7 +5220,7 @@
     </row>
     <row r="138">
       <c r="A138" s="6" t="n"/>
-      <c r="B138" s="16" t="n"/>
+      <c r="B138" s="17" t="n"/>
       <c r="C138" s="7" t="n"/>
       <c r="D138" s="7" t="n"/>
       <c r="E138" s="7" t="n"/>
@@ -6584,30 +5245,30 @@
       <c r="X138" s="19" t="n"/>
     </row>
     <row r="139">
-      <c r="A139" s="23" t="n"/>
-      <c r="B139" s="24" t="n"/>
-      <c r="C139" s="24" t="n"/>
-      <c r="D139" s="24" t="n"/>
-      <c r="E139" s="24" t="n"/>
-      <c r="F139" s="24" t="n"/>
-      <c r="G139" s="24" t="n"/>
-      <c r="H139" s="24" t="n"/>
-      <c r="I139" s="24" t="n"/>
-      <c r="J139" s="24" t="n"/>
-      <c r="K139" s="24" t="n"/>
-      <c r="L139" s="24" t="n"/>
-      <c r="M139" s="24" t="n"/>
-      <c r="N139" s="24" t="n"/>
-      <c r="O139" s="24" t="n"/>
-      <c r="P139" s="24" t="n"/>
-      <c r="Q139" s="24" t="n"/>
-      <c r="R139" s="24" t="n"/>
-      <c r="S139" s="24" t="n"/>
-      <c r="T139" s="24" t="n"/>
-      <c r="U139" s="24" t="n"/>
-      <c r="V139" s="24" t="n"/>
-      <c r="W139" s="24" t="n"/>
-      <c r="X139" s="24" t="n"/>
+      <c r="A139" s="21" t="n"/>
+      <c r="B139" s="22" t="n"/>
+      <c r="C139" s="22" t="n"/>
+      <c r="D139" s="22" t="n"/>
+      <c r="E139" s="22" t="n"/>
+      <c r="F139" s="22" t="n"/>
+      <c r="G139" s="22" t="n"/>
+      <c r="H139" s="22" t="n"/>
+      <c r="I139" s="22" t="n"/>
+      <c r="J139" s="22" t="n"/>
+      <c r="K139" s="22" t="n"/>
+      <c r="L139" s="22" t="n"/>
+      <c r="M139" s="22" t="n"/>
+      <c r="N139" s="22" t="n"/>
+      <c r="O139" s="22" t="n"/>
+      <c r="P139" s="22" t="n"/>
+      <c r="Q139" s="22" t="n"/>
+      <c r="R139" s="22" t="n"/>
+      <c r="S139" s="22" t="n"/>
+      <c r="T139" s="22" t="n"/>
+      <c r="U139" s="22" t="n"/>
+      <c r="V139" s="22" t="n"/>
+      <c r="W139" s="22" t="n"/>
+      <c r="X139" s="22" t="n"/>
     </row>
     <row r="140"/>
     <row r="141"/>
@@ -7183,75 +5844,75 @@
     <row r="154">
       <c r="A154" s="14" t="n"/>
       <c r="B154" s="7" t="n"/>
-      <c r="C154" s="7" t="n"/>
-      <c r="D154" s="7" t="n"/>
-      <c r="E154" s="7" t="n"/>
-      <c r="F154" s="7" t="n"/>
-      <c r="G154" s="7" t="n"/>
-      <c r="H154" s="7" t="n"/>
-      <c r="I154" s="7" t="n"/>
-      <c r="J154" s="7" t="n"/>
-      <c r="K154" s="8" t="inlineStr">
+      <c r="C154" s="13" t="n"/>
+      <c r="D154" s="13" t="n"/>
+      <c r="E154" s="13" t="n"/>
+      <c r="F154" s="13" t="n"/>
+      <c r="G154" s="13" t="n"/>
+      <c r="H154" s="13" t="n"/>
+      <c r="I154" s="13" t="n"/>
+      <c r="J154" s="13" t="n"/>
+      <c r="K154" s="12" t="inlineStr">
         <is>
           <t>Gravel</t>
         </is>
       </c>
-      <c r="L154" s="8" t="inlineStr">
+      <c r="L154" s="12" t="inlineStr">
         <is>
           <t>Sand</t>
         </is>
       </c>
-      <c r="M154" s="8" t="inlineStr">
+      <c r="M154" s="12" t="inlineStr">
         <is>
           <t>Silt</t>
         </is>
       </c>
-      <c r="N154" s="8" t="inlineStr">
+      <c r="N154" s="12" t="inlineStr">
         <is>
           <t>Clay</t>
         </is>
       </c>
-      <c r="O154" s="8" t="inlineStr">
+      <c r="O154" s="12" t="inlineStr">
         <is>
           <t>W(%)</t>
         </is>
       </c>
-      <c r="P154" s="8" t="inlineStr">
+      <c r="P154" s="12" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="Q154" s="8" t="inlineStr">
+      <c r="Q154" s="12" t="inlineStr">
         <is>
           <t>T/M³</t>
         </is>
       </c>
-      <c r="R154" s="8" t="inlineStr">
+      <c r="R154" s="12" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="S154" s="8" t="inlineStr">
+      <c r="S154" s="12" t="inlineStr">
         <is>
           <t>WL(%)</t>
         </is>
       </c>
-      <c r="T154" s="8" t="inlineStr">
+      <c r="T154" s="12" t="inlineStr">
         <is>
           <t>IP(%)</t>
         </is>
       </c>
-      <c r="U154" s="8" t="inlineStr">
+      <c r="U154" s="12" t="inlineStr">
         <is>
           <t>(kgf/cm²)</t>
         </is>
       </c>
-      <c r="V154" s="8" t="inlineStr">
+      <c r="V154" s="12" t="inlineStr">
         <is>
           <t>(Degree)</t>
         </is>
       </c>
-      <c r="W154" s="8" t="inlineStr">
+      <c r="W154" s="12" t="inlineStr">
         <is>
           <t>(kgf/cm²)</t>
         </is>
@@ -7264,33 +5925,35 @@
     </row>
     <row r="155">
       <c r="A155" s="6" t="n"/>
-      <c r="B155" s="16" t="n"/>
-      <c r="C155" s="17" t="n"/>
-      <c r="D155" s="17" t="n"/>
-      <c r="E155" s="17" t="n"/>
-      <c r="F155" s="17" t="n"/>
-      <c r="G155" s="17" t="n"/>
-      <c r="H155" s="17" t="n"/>
-      <c r="I155" s="17" t="n"/>
-      <c r="J155" s="17" t="n"/>
-      <c r="K155" s="17" t="n"/>
-      <c r="L155" s="17" t="n"/>
-      <c r="M155" s="17" t="n"/>
-      <c r="N155" s="17" t="n"/>
-      <c r="O155" s="17" t="n"/>
-      <c r="P155" s="17" t="n"/>
-      <c r="Q155" s="17" t="n"/>
-      <c r="R155" s="17" t="n"/>
-      <c r="S155" s="17" t="n"/>
-      <c r="T155" s="17" t="n"/>
-      <c r="U155" s="17" t="n"/>
-      <c r="V155" s="17" t="n"/>
-      <c r="W155" s="17" t="n"/>
+      <c r="B155" s="17" t="n"/>
+      <c r="C155" s="7" t="n"/>
+      <c r="D155" s="7" t="n"/>
+      <c r="E155" s="7" t="n"/>
+      <c r="F155" s="7" t="n"/>
+      <c r="G155" s="7" t="n"/>
+      <c r="H155" s="7" t="n"/>
+      <c r="I155" s="7" t="n"/>
+      <c r="J155" s="7" t="n"/>
+      <c r="K155" s="7" t="n"/>
+      <c r="L155" s="7" t="n"/>
+      <c r="M155" s="7" t="n"/>
+      <c r="N155" s="7" t="n"/>
+      <c r="O155" s="7" t="n"/>
+      <c r="P155" s="7" t="n"/>
+      <c r="Q155" s="7" t="n"/>
+      <c r="R155" s="7" t="n"/>
+      <c r="S155" s="7" t="n"/>
+      <c r="T155" s="7" t="n"/>
+      <c r="U155" s="7" t="n"/>
+      <c r="V155" s="7" t="n"/>
+      <c r="W155" s="7" t="n"/>
       <c r="X155" s="18" t="n"/>
     </row>
     <row r="156">
-      <c r="A156" s="6" t="n"/>
-      <c r="B156" s="16" t="n"/>
+      <c r="A156" s="16" t="n">
+        <v>46</v>
+      </c>
+      <c r="B156" s="17" t="n"/>
       <c r="C156" s="7" t="n"/>
       <c r="D156" s="7" t="n"/>
       <c r="E156" s="7" t="n"/>
@@ -7316,7 +5979,7 @@
     </row>
     <row r="157">
       <c r="A157" s="6" t="n"/>
-      <c r="B157" s="16" t="n"/>
+      <c r="B157" s="17" t="n"/>
       <c r="C157" s="7" t="n"/>
       <c r="D157" s="7" t="n"/>
       <c r="E157" s="7" t="n"/>
@@ -7342,7 +6005,7 @@
     </row>
     <row r="158">
       <c r="A158" s="6" t="n"/>
-      <c r="B158" s="16" t="n"/>
+      <c r="B158" s="17" t="n"/>
       <c r="C158" s="7" t="n"/>
       <c r="D158" s="7" t="n"/>
       <c r="E158" s="7" t="n"/>
@@ -7368,7 +6031,7 @@
     </row>
     <row r="159">
       <c r="A159" s="6" t="n"/>
-      <c r="B159" s="16" t="n"/>
+      <c r="B159" s="17" t="n"/>
       <c r="C159" s="7" t="n"/>
       <c r="D159" s="7" t="n"/>
       <c r="E159" s="7" t="n"/>
@@ -7394,7 +6057,7 @@
     </row>
     <row r="160">
       <c r="A160" s="6" t="n"/>
-      <c r="B160" s="16" t="n"/>
+      <c r="B160" s="17" t="n"/>
       <c r="C160" s="7" t="n"/>
       <c r="D160" s="7" t="n"/>
       <c r="E160" s="7" t="n"/>
@@ -7420,7 +6083,7 @@
     </row>
     <row r="161">
       <c r="A161" s="6" t="n"/>
-      <c r="B161" s="16" t="n"/>
+      <c r="B161" s="17" t="n"/>
       <c r="C161" s="7" t="n"/>
       <c r="D161" s="7" t="n"/>
       <c r="E161" s="7" t="n"/>
@@ -7446,7 +6109,7 @@
     </row>
     <row r="162">
       <c r="A162" s="6" t="n"/>
-      <c r="B162" s="16" t="n"/>
+      <c r="B162" s="17" t="n"/>
       <c r="C162" s="7" t="n"/>
       <c r="D162" s="7" t="n"/>
       <c r="E162" s="7" t="n"/>
@@ -7472,7 +6135,7 @@
     </row>
     <row r="163">
       <c r="A163" s="6" t="n"/>
-      <c r="B163" s="16" t="n"/>
+      <c r="B163" s="17" t="n"/>
       <c r="C163" s="7" t="n"/>
       <c r="D163" s="7" t="n"/>
       <c r="E163" s="7" t="n"/>
@@ -7498,7 +6161,7 @@
     </row>
     <row r="164">
       <c r="A164" s="6" t="n"/>
-      <c r="B164" s="16" t="n"/>
+      <c r="B164" s="17" t="n"/>
       <c r="C164" s="7" t="n"/>
       <c r="D164" s="7" t="n"/>
       <c r="E164" s="7" t="n"/>
@@ -7524,7 +6187,7 @@
     </row>
     <row r="165">
       <c r="A165" s="6" t="n"/>
-      <c r="B165" s="16" t="n"/>
+      <c r="B165" s="17" t="n"/>
       <c r="C165" s="7" t="n"/>
       <c r="D165" s="7" t="n"/>
       <c r="E165" s="7" t="n"/>
@@ -7549,8 +6212,10 @@
       <c r="X165" s="19" t="n"/>
     </row>
     <row r="166">
-      <c r="A166" s="6" t="n"/>
-      <c r="B166" s="16" t="n"/>
+      <c r="A166" s="16" t="n">
+        <v>51</v>
+      </c>
+      <c r="B166" s="17" t="n"/>
       <c r="C166" s="7" t="n"/>
       <c r="D166" s="7" t="n"/>
       <c r="E166" s="7" t="n"/>
@@ -7576,7 +6241,7 @@
     </row>
     <row r="167">
       <c r="A167" s="6" t="n"/>
-      <c r="B167" s="16" t="n"/>
+      <c r="B167" s="17" t="n"/>
       <c r="C167" s="7" t="n"/>
       <c r="D167" s="7" t="n"/>
       <c r="E167" s="7" t="n"/>
@@ -7602,7 +6267,7 @@
     </row>
     <row r="168">
       <c r="A168" s="6" t="n"/>
-      <c r="B168" s="16" t="n"/>
+      <c r="B168" s="17" t="n"/>
       <c r="C168" s="7" t="n"/>
       <c r="D168" s="7" t="n"/>
       <c r="E168" s="7" t="n"/>
@@ -7628,7 +6293,7 @@
     </row>
     <row r="169">
       <c r="A169" s="6" t="n"/>
-      <c r="B169" s="16" t="n"/>
+      <c r="B169" s="17" t="n"/>
       <c r="C169" s="7" t="n"/>
       <c r="D169" s="7" t="n"/>
       <c r="E169" s="7" t="n"/>
@@ -7654,7 +6319,7 @@
     </row>
     <row r="170">
       <c r="A170" s="6" t="n"/>
-      <c r="B170" s="16" t="n"/>
+      <c r="B170" s="17" t="n"/>
       <c r="C170" s="7" t="n"/>
       <c r="D170" s="7" t="n"/>
       <c r="E170" s="7" t="n"/>
@@ -7680,7 +6345,7 @@
     </row>
     <row r="171">
       <c r="A171" s="6" t="n"/>
-      <c r="B171" s="16" t="n"/>
+      <c r="B171" s="17" t="n"/>
       <c r="C171" s="7" t="n"/>
       <c r="D171" s="7" t="n"/>
       <c r="E171" s="7" t="n"/>
@@ -7706,7 +6371,7 @@
     </row>
     <row r="172">
       <c r="A172" s="6" t="n"/>
-      <c r="B172" s="16" t="n"/>
+      <c r="B172" s="17" t="n"/>
       <c r="C172" s="7" t="n"/>
       <c r="D172" s="7" t="n"/>
       <c r="E172" s="7" t="n"/>
@@ -7732,7 +6397,7 @@
     </row>
     <row r="173">
       <c r="A173" s="6" t="n"/>
-      <c r="B173" s="16" t="n"/>
+      <c r="B173" s="17" t="n"/>
       <c r="C173" s="7" t="n"/>
       <c r="D173" s="7" t="n"/>
       <c r="E173" s="7" t="n"/>
@@ -7758,7 +6423,7 @@
     </row>
     <row r="174">
       <c r="A174" s="6" t="n"/>
-      <c r="B174" s="16" t="n"/>
+      <c r="B174" s="17" t="n"/>
       <c r="C174" s="7" t="n"/>
       <c r="D174" s="7" t="n"/>
       <c r="E174" s="7" t="n"/>
@@ -7784,7 +6449,7 @@
     </row>
     <row r="175">
       <c r="A175" s="6" t="n"/>
-      <c r="B175" s="16" t="n"/>
+      <c r="B175" s="17" t="n"/>
       <c r="C175" s="7" t="n"/>
       <c r="D175" s="7" t="n"/>
       <c r="E175" s="7" t="n"/>
@@ -7809,8 +6474,10 @@
       <c r="X175" s="19" t="n"/>
     </row>
     <row r="176">
-      <c r="A176" s="6" t="n"/>
-      <c r="B176" s="16" t="n"/>
+      <c r="A176" s="16" t="n">
+        <v>56</v>
+      </c>
+      <c r="B176" s="17" t="n"/>
       <c r="C176" s="7" t="n"/>
       <c r="D176" s="7" t="n"/>
       <c r="E176" s="7" t="n"/>
@@ -7836,7 +6503,7 @@
     </row>
     <row r="177">
       <c r="A177" s="6" t="n"/>
-      <c r="B177" s="16" t="n"/>
+      <c r="B177" s="17" t="n"/>
       <c r="C177" s="7" t="n"/>
       <c r="D177" s="7" t="n"/>
       <c r="E177" s="7" t="n"/>
@@ -7862,7 +6529,7 @@
     </row>
     <row r="178">
       <c r="A178" s="6" t="n"/>
-      <c r="B178" s="16" t="n"/>
+      <c r="B178" s="17" t="n"/>
       <c r="C178" s="7" t="n"/>
       <c r="D178" s="7" t="n"/>
       <c r="E178" s="7" t="n"/>
@@ -7888,7 +6555,7 @@
     </row>
     <row r="179">
       <c r="A179" s="6" t="n"/>
-      <c r="B179" s="16" t="n"/>
+      <c r="B179" s="17" t="n"/>
       <c r="C179" s="7" t="n"/>
       <c r="D179" s="7" t="n"/>
       <c r="E179" s="7" t="n"/>
@@ -7914,7 +6581,7 @@
     </row>
     <row r="180">
       <c r="A180" s="6" t="n"/>
-      <c r="B180" s="16" t="n"/>
+      <c r="B180" s="17" t="n"/>
       <c r="C180" s="7" t="n"/>
       <c r="D180" s="7" t="n"/>
       <c r="E180" s="7" t="n"/>
@@ -7940,7 +6607,7 @@
     </row>
     <row r="181">
       <c r="A181" s="6" t="n"/>
-      <c r="B181" s="16" t="n"/>
+      <c r="B181" s="17" t="n"/>
       <c r="C181" s="7" t="n"/>
       <c r="D181" s="7" t="n"/>
       <c r="E181" s="7" t="n"/>
@@ -7966,7 +6633,7 @@
     </row>
     <row r="182">
       <c r="A182" s="6" t="n"/>
-      <c r="B182" s="16" t="n"/>
+      <c r="B182" s="17" t="n"/>
       <c r="C182" s="7" t="n"/>
       <c r="D182" s="7" t="n"/>
       <c r="E182" s="7" t="n"/>
@@ -7992,7 +6659,7 @@
     </row>
     <row r="183">
       <c r="A183" s="6" t="n"/>
-      <c r="B183" s="16" t="n"/>
+      <c r="B183" s="17" t="n"/>
       <c r="C183" s="7" t="n"/>
       <c r="D183" s="7" t="n"/>
       <c r="E183" s="7" t="n"/>
@@ -8017,8 +6684,10 @@
       <c r="X183" s="19" t="n"/>
     </row>
     <row r="184">
-      <c r="A184" s="6" t="n"/>
-      <c r="B184" s="16" t="n"/>
+      <c r="A184" s="16" t="n">
+        <v>60</v>
+      </c>
+      <c r="B184" s="17" t="n"/>
       <c r="C184" s="7" t="n"/>
       <c r="D184" s="7" t="n"/>
       <c r="E184" s="7" t="n"/>
@@ -8043,33 +6712,30 @@
       <c r="X184" s="19" t="n"/>
     </row>
     <row r="185">
-      <c r="A185" s="23" t="n"/>
-      <c r="B185" s="16" t="n"/>
-      <c r="C185" s="7" t="n"/>
-      <c r="D185" s="7" t="n"/>
-      <c r="E185" s="7" t="n"/>
-      <c r="F185" s="7" t="n"/>
-      <c r="G185" s="7" t="n"/>
-      <c r="H185" s="7" t="n"/>
-      <c r="I185" s="7" t="n"/>
-      <c r="J185" s="7" t="n"/>
-      <c r="K185" s="7" t="n"/>
-      <c r="L185" s="7" t="n"/>
-      <c r="M185" s="7" t="n"/>
-      <c r="N185" s="7" t="n"/>
-      <c r="O185" s="7" t="n"/>
-      <c r="P185" s="7" t="n"/>
-      <c r="Q185" s="7" t="n"/>
-      <c r="R185" s="7" t="n"/>
-      <c r="S185" s="7" t="n"/>
-      <c r="T185" s="7" t="n"/>
-      <c r="U185" s="7" t="n"/>
-      <c r="V185" s="7" t="n"/>
-      <c r="W185" s="7" t="n"/>
-      <c r="X185" s="23" t="n"/>
-    </row>
-    <row r="186">
-      <c r="B186" s="16" t="n"/>
+      <c r="A185" s="21" t="n"/>
+      <c r="B185" s="21" t="n"/>
+      <c r="C185" s="21" t="n"/>
+      <c r="D185" s="21" t="n"/>
+      <c r="E185" s="21" t="n"/>
+      <c r="F185" s="21" t="n"/>
+      <c r="G185" s="21" t="n"/>
+      <c r="H185" s="21" t="n"/>
+      <c r="I185" s="21" t="n"/>
+      <c r="J185" s="21" t="n"/>
+      <c r="K185" s="21" t="n"/>
+      <c r="L185" s="21" t="n"/>
+      <c r="M185" s="21" t="n"/>
+      <c r="N185" s="21" t="n"/>
+      <c r="O185" s="21" t="n"/>
+      <c r="P185" s="21" t="n"/>
+      <c r="Q185" s="21" t="n"/>
+      <c r="R185" s="21" t="n"/>
+      <c r="S185" s="21" t="n"/>
+      <c r="T185" s="21" t="n"/>
+      <c r="U185" s="21" t="n"/>
+      <c r="V185" s="21" t="n"/>
+      <c r="W185" s="21" t="n"/>
+      <c r="X185" s="21" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="168">
@@ -8243,6 +6909,5 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/singol_hole_output.xlsx
+++ b/singol_hole_output.xlsx
@@ -227,6 +227,1211 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>24</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>72</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>75</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>78</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>108</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>132</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>154</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>164</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>174</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18002250" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>182</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>24</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>72</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>75</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>78</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>108</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>132</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>154</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>164</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>174</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18002250" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>182</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="25" name="Image 25" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="26" name="Image 26" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>24</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="27" name="Image 27" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>72</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="28" name="Image 28" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>75</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="29" name="Image 29" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>78</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="30" name="Image 30" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>108</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="31" name="Image 31" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>132</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="32" name="Image 32" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>154</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="33" name="Image 33" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>164</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="34" name="Image 34" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>174</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18002250" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="35" name="Image 35" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>182</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="36" name="Image 36" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="37" name="Image 37" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="38" name="Image 38" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>24</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="39" name="Image 39" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>72</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="40" name="Image 40" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>75</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="41" name="Image 41" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>78</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="42" name="Image 42" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>108</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="43" name="Image 43" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>132</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="44" name="Image 44" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>154</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="45" name="Image 45" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>164</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="46" name="Image 46" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>174</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18002250" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="47" name="Image 47" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>182</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="17754600" cy="7477125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="48" name="Image 48" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -513,7 +1718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -528,7 +1733,7 @@
   <cols>
     <col width="6.11" customWidth="1" min="1" max="1"/>
     <col width="1" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="1.5" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
@@ -1124,7 +2329,7 @@
         </is>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="60" customHeight="1">
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="7" t="n"/>
       <c r="C16" s="13" t="n"/>
@@ -1348,7 +2553,7 @@
       <c r="W20" s="7" t="n"/>
       <c r="X20" s="19" t="n"/>
     </row>
-    <row r="21">
+    <row r="21" ht="60" customHeight="1">
       <c r="A21" s="6" t="n"/>
       <c r="B21" s="17" t="n"/>
       <c r="C21" s="7" t="n"/>
@@ -1490,7 +2695,7 @@
       <c r="W24" s="7" t="n"/>
       <c r="X24" s="19" t="n"/>
     </row>
-    <row r="25">
+    <row r="25" ht="60" customHeight="1">
       <c r="A25" s="6" t="n"/>
       <c r="B25" s="17" t="n"/>
       <c r="C25" s="7" t="n"/>
@@ -3427,7 +4632,7 @@
       <c r="W72" s="7" t="n"/>
       <c r="X72" s="19" t="n"/>
     </row>
-    <row r="73">
+    <row r="73" ht="60" customHeight="1">
       <c r="A73" s="6" t="n"/>
       <c r="B73" s="17" t="n"/>
       <c r="C73" s="7" t="n"/>
@@ -3547,7 +4752,7 @@
       <c r="W75" s="7" t="n"/>
       <c r="X75" s="19" t="n"/>
     </row>
-    <row r="76">
+    <row r="76" ht="60" customHeight="1">
       <c r="A76" s="6" t="n"/>
       <c r="B76" s="17" t="n"/>
       <c r="C76" s="7" t="n"/>
@@ -3667,7 +4872,7 @@
       <c r="W78" s="7" t="n"/>
       <c r="X78" s="19" t="n"/>
     </row>
-    <row r="79">
+    <row r="79" ht="60" customHeight="1">
       <c r="A79" s="6" t="n"/>
       <c r="B79" s="17" t="n"/>
       <c r="C79" s="7" t="n"/>
@@ -4912,7 +6117,7 @@
         </is>
       </c>
     </row>
-    <row r="109">
+    <row r="109" ht="60" customHeight="1">
       <c r="A109" s="6" t="n"/>
       <c r="B109" s="17" t="n"/>
       <c r="C109" s="7" t="n"/>
@@ -5774,7 +6979,7 @@
       <c r="W132" s="7" t="n"/>
       <c r="X132" s="19" t="n"/>
     </row>
-    <row r="133">
+    <row r="133" ht="60" customHeight="1">
       <c r="A133" s="6" t="n"/>
       <c r="B133" s="17" t="n"/>
       <c r="C133" s="7" t="n"/>
@@ -6611,7 +7816,7 @@
         </is>
       </c>
     </row>
-    <row r="155">
+    <row r="155" ht="60" customHeight="1">
       <c r="A155" s="6" t="n"/>
       <c r="B155" s="17" t="n"/>
       <c r="C155" s="7" t="n"/>
@@ -6873,7 +8078,7 @@
       <c r="W164" s="7" t="n"/>
       <c r="X164" s="19" t="n"/>
     </row>
-    <row r="165">
+    <row r="165" ht="60" customHeight="1">
       <c r="A165" s="6" t="n"/>
       <c r="B165" s="17" t="n"/>
       <c r="C165" s="7" t="n"/>
@@ -7135,7 +8340,7 @@
       <c r="W174" s="7" t="n"/>
       <c r="X174" s="19" t="n"/>
     </row>
-    <row r="175">
+    <row r="175" ht="60" customHeight="1">
       <c r="A175" s="6" t="n"/>
       <c r="B175" s="17" t="n"/>
       <c r="C175" s="7" t="n"/>
@@ -7345,7 +8550,7 @@
       <c r="W182" s="7" t="n"/>
       <c r="X182" s="19" t="n"/>
     </row>
-    <row r="183">
+    <row r="183" ht="60" customHeight="1">
       <c r="A183" s="6" t="n"/>
       <c r="B183" s="17" t="n"/>
       <c r="C183" s="7" t="n"/>
@@ -7597,5 +8802,6 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/singol_hole_output.xlsx
+++ b/singol_hole_output.xlsx
@@ -227,1211 +227,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>15</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>20</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>24</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>72</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>75</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>78</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>108</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="7" name="Image 7" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>132</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="8" name="Image 8" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>154</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="9" name="Image 9" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>164</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="10" name="Image 10" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>174</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="18002250" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="11" name="Image 11" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>182</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="12" name="Image 12" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>15</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="13" name="Image 13" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>20</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="14" name="Image 14" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>24</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="15" name="Image 15" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>72</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="16" name="Image 16" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>75</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="17" name="Image 17" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>78</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="18" name="Image 18" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>108</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="19" name="Image 19" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>132</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="20" name="Image 20" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>154</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="21" name="Image 21" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>164</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="22" name="Image 22" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>174</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="18002250" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="23" name="Image 23" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>182</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="24" name="Image 24" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>15</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="25" name="Image 25" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId25"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>20</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="26" name="Image 26" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId26"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>24</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="27" name="Image 27" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>72</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="28" name="Image 28" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>75</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="29" name="Image 29" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>78</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="30" name="Image 30" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId30"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>108</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="31" name="Image 31" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId31"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>132</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="32" name="Image 32" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId32"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>154</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="33" name="Image 33" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId33"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>164</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="34" name="Image 34" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId34"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>174</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="18002250" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="35" name="Image 35" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId35"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>182</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="36" name="Image 36" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId36"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>15</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="37" name="Image 37" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId37"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>20</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="38" name="Image 38" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId38"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>24</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="39" name="Image 39" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId39"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>72</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="40" name="Image 40" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId40"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>75</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="41" name="Image 41" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId41"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>78</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="42" name="Image 42" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId42"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>108</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="43" name="Image 43" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId43"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>132</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="44" name="Image 44" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId44"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>154</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="45" name="Image 45" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId45"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>164</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="46" name="Image 46" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId46"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>174</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="18002250" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="47" name="Image 47" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId47"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>182</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="17754600" cy="7477125"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="48" name="Image 48" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId48"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1718,7 +513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1733,7 +528,7 @@
   <cols>
     <col width="6.11" customWidth="1" min="1" max="1"/>
     <col width="1" customWidth="1" min="2" max="2"/>
-    <col width="1.5" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
@@ -2329,7 +1124,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
+    <row r="16">
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="7" t="n"/>
       <c r="C16" s="13" t="n"/>
@@ -2553,7 +1348,7 @@
       <c r="W20" s="7" t="n"/>
       <c r="X20" s="19" t="n"/>
     </row>
-    <row r="21" ht="60" customHeight="1">
+    <row r="21">
       <c r="A21" s="6" t="n"/>
       <c r="B21" s="17" t="n"/>
       <c r="C21" s="7" t="n"/>
@@ -2695,7 +1490,7 @@
       <c r="W24" s="7" t="n"/>
       <c r="X24" s="19" t="n"/>
     </row>
-    <row r="25" ht="60" customHeight="1">
+    <row r="25">
       <c r="A25" s="6" t="n"/>
       <c r="B25" s="17" t="n"/>
       <c r="C25" s="7" t="n"/>
@@ -4632,7 +3427,7 @@
       <c r="W72" s="7" t="n"/>
       <c r="X72" s="19" t="n"/>
     </row>
-    <row r="73" ht="60" customHeight="1">
+    <row r="73">
       <c r="A73" s="6" t="n"/>
       <c r="B73" s="17" t="n"/>
       <c r="C73" s="7" t="n"/>
@@ -4752,7 +3547,7 @@
       <c r="W75" s="7" t="n"/>
       <c r="X75" s="19" t="n"/>
     </row>
-    <row r="76" ht="60" customHeight="1">
+    <row r="76">
       <c r="A76" s="6" t="n"/>
       <c r="B76" s="17" t="n"/>
       <c r="C76" s="7" t="n"/>
@@ -4872,7 +3667,7 @@
       <c r="W78" s="7" t="n"/>
       <c r="X78" s="19" t="n"/>
     </row>
-    <row r="79" ht="60" customHeight="1">
+    <row r="79">
       <c r="A79" s="6" t="n"/>
       <c r="B79" s="17" t="n"/>
       <c r="C79" s="7" t="n"/>
@@ -6117,7 +4912,7 @@
         </is>
       </c>
     </row>
-    <row r="109" ht="60" customHeight="1">
+    <row r="109">
       <c r="A109" s="6" t="n"/>
       <c r="B109" s="17" t="n"/>
       <c r="C109" s="7" t="n"/>
@@ -6979,7 +5774,7 @@
       <c r="W132" s="7" t="n"/>
       <c r="X132" s="19" t="n"/>
     </row>
-    <row r="133" ht="60" customHeight="1">
+    <row r="133">
       <c r="A133" s="6" t="n"/>
       <c r="B133" s="17" t="n"/>
       <c r="C133" s="7" t="n"/>
@@ -7816,7 +6611,7 @@
         </is>
       </c>
     </row>
-    <row r="155" ht="60" customHeight="1">
+    <row r="155">
       <c r="A155" s="6" t="n"/>
       <c r="B155" s="17" t="n"/>
       <c r="C155" s="7" t="n"/>
@@ -8078,7 +6873,7 @@
       <c r="W164" s="7" t="n"/>
       <c r="X164" s="19" t="n"/>
     </row>
-    <row r="165" ht="60" customHeight="1">
+    <row r="165">
       <c r="A165" s="6" t="n"/>
       <c r="B165" s="17" t="n"/>
       <c r="C165" s="7" t="n"/>
@@ -8340,7 +7135,7 @@
       <c r="W174" s="7" t="n"/>
       <c r="X174" s="19" t="n"/>
     </row>
-    <row r="175" ht="60" customHeight="1">
+    <row r="175">
       <c r="A175" s="6" t="n"/>
       <c r="B175" s="17" t="n"/>
       <c r="C175" s="7" t="n"/>
@@ -8550,7 +7345,7 @@
       <c r="W182" s="7" t="n"/>
       <c r="X182" s="19" t="n"/>
     </row>
-    <row r="183" ht="60" customHeight="1">
+    <row r="183">
       <c r="A183" s="6" t="n"/>
       <c r="B183" s="17" t="n"/>
       <c r="C183" s="7" t="n"/>
@@ -8630,6 +7425,7 @@
       <c r="W185" s="21" t="n"/>
       <c r="X185" s="21" t="n"/>
     </row>
+    <row r="186"/>
   </sheetData>
   <mergeCells count="168">
     <mergeCell ref="I54:K54"/>
@@ -8802,6 +7598,5 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/singol_hole_output.xlsx
+++ b/singol_hole_output.xlsx
@@ -142,9 +142,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -227,6 +225,311 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="3400425"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="4400550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>25</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="5200650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>73</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="14801850"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>76</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="15401925"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>79</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="16002000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>109</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="22002750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>133</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="26803350"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>155</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="31203900"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>165</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="33204150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>175</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="35204400"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>183</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="36804600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -513,7 +816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -528,7 +831,7 @@
   <cols>
     <col width="6.11" customWidth="1" min="1" max="1"/>
     <col width="1" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="5.5" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
@@ -7425,7 +7728,6 @@
       <c r="W185" s="21" t="n"/>
       <c r="X185" s="21" t="n"/>
     </row>
-    <row r="186"/>
   </sheetData>
   <mergeCells count="168">
     <mergeCell ref="I54:K54"/>
@@ -7598,5 +7900,6 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/singol_hole_output.xlsx
+++ b/singol_hole_output.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="B-E-4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="B-E-5" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="B-Ｅ-4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="B-Ｅ-5" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -615,7 +615,7 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>B-E-4</t>
+          <t>B-Ｅ-4</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>B-E-4</t>
+          <t>B-Ｅ-4</t>
         </is>
       </c>
       <c r="G54" s="1" t="inlineStr">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>B-E-4</t>
+          <t>B-Ｅ-4</t>
         </is>
       </c>
       <c r="G100" s="1" t="inlineStr">
@@ -6012,7 +6012,7 @@
       </c>
       <c r="D146" s="3" t="inlineStr">
         <is>
-          <t>B-E-4</t>
+          <t>B-Ｅ-4</t>
         </is>
       </c>
       <c r="G146" s="1" t="inlineStr">
@@ -7479,7 +7479,7 @@
       </c>
       <c r="D192" s="3" t="inlineStr">
         <is>
-          <t>B-E-4</t>
+          <t>B-Ｅ-4</t>
         </is>
       </c>
       <c r="G192" s="1" t="inlineStr">
@@ -9198,7 +9198,7 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>B-E-5</t>
+          <t>B-Ｅ-5</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
@@ -11029,7 +11029,7 @@
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>B-E-5</t>
+          <t>B-Ｅ-5</t>
         </is>
       </c>
       <c r="G54" s="1" t="inlineStr">
@@ -12888,7 +12888,7 @@
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>B-E-5</t>
+          <t>B-Ｅ-5</t>
         </is>
       </c>
       <c r="G100" s="1" t="inlineStr">

--- a/singol_hole_output.xlsx
+++ b/singol_hole_output.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="B-E-4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="B-E-5" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="B-Ｅ-4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="B-Ｅ-5" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -226,6 +226,541 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="3400425"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>33</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="9801225"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>33</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="9801225"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>82</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="5600700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>50</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="12001500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>110</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="3000375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>67</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="11601450"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>125</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="6800850"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>84</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="15001875"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>159</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="400050"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>101</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="12001500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>161</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="1200150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>118</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="9801225"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>167</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="600075"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>135</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="7000875"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>170</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="9801225"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>152</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="13401675"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="200025"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="5200650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>42</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="17202150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>33</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="361950" cy="19002375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,7 +1047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -615,7 +1150,7 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>B-E-4</t>
+          <t>B-Ｅ-4</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
@@ -2452,7 +2987,7 @@
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>B-E-4</t>
+          <t>B-Ｅ-4</t>
         </is>
       </c>
       <c r="G54" s="1" t="inlineStr">
@@ -4313,7 +4848,7 @@
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>B-E-4</t>
+          <t>B-Ｅ-4</t>
         </is>
       </c>
       <c r="G100" s="1" t="inlineStr">
@@ -6012,7 +6547,7 @@
       </c>
       <c r="D146" s="3" t="inlineStr">
         <is>
-          <t>B-E-4</t>
+          <t>B-Ｅ-4</t>
         </is>
       </c>
       <c r="G146" s="1" t="inlineStr">
@@ -7479,7 +8014,7 @@
       </c>
       <c r="D192" s="3" t="inlineStr">
         <is>
-          <t>B-E-4</t>
+          <t>B-Ｅ-4</t>
         </is>
       </c>
       <c r="G192" s="1" t="inlineStr">
@@ -9091,11 +9626,12 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9198,7 +9734,7 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>B-E-5</t>
+          <t>B-Ｅ-5</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
@@ -11029,7 +11565,7 @@
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>B-E-5</t>
+          <t>B-Ｅ-5</t>
         </is>
       </c>
       <c r="G54" s="1" t="inlineStr">
@@ -12888,7 +13424,7 @@
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>B-E-5</t>
+          <t>B-Ｅ-5</t>
         </is>
       </c>
       <c r="G100" s="1" t="inlineStr">
@@ -14656,5 +15192,6 @@
     <mergeCell ref="E11:H11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>